--- a/Figure Generating/data/DNA_Location_Metadata_mess_around.xlsx
+++ b/Figure Generating/data/DNA_Location_Metadata_mess_around.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin Juntao\Desktop\transposase-deep-ocean\Figure Generating\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E37328-7081-4E9F-947D-6236AE2C4EB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5577E297-F4D7-4FDD-B668-FABB0DFB76A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="not_in_DNA_to_keep" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!#REF!</definedName>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2136" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2531" uniqueCount="765">
   <si>
     <t>TARA_A100000164</t>
   </si>
@@ -1843,7 +1845,496 @@
     <t>ERR599003</t>
   </si>
   <si>
-    <t>what we have:</t>
+    <t>ERR315856_MED_DCM_7_1.fastq</t>
+  </si>
+  <si>
+    <t>-rw-rw-r--</t>
+  </si>
+  <si>
+    <t>zhongj2</t>
+  </si>
+  <si>
+    <t>23G</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>28G</t>
+  </si>
+  <si>
+    <t>ERR315857_MED_SRF_7_1.fastq</t>
+  </si>
+  <si>
+    <t>40G</t>
+  </si>
+  <si>
+    <t>ERR594303_SAT_DCM_78_1.fastq</t>
+  </si>
+  <si>
+    <t>ERR594324_EAC_DCM_64_1.fastq</t>
+  </si>
+  <si>
+    <t>6.1G</t>
+  </si>
+  <si>
+    <t>ERR594327_ARS_SRF_39_1.fastq</t>
+  </si>
+  <si>
+    <t>27G</t>
+  </si>
+  <si>
+    <t>ERR594328_RS_SRF_34_1.fastq</t>
+  </si>
+  <si>
+    <t>5.9G</t>
+  </si>
+  <si>
+    <t>ERR594334_ARS_SRF_36_1.fastq</t>
+  </si>
+  <si>
+    <t>51G</t>
+  </si>
+  <si>
+    <t>ERR594336_SAT_DCM_78_1.fastq</t>
+  </si>
+  <si>
+    <t>13G</t>
+  </si>
+  <si>
+    <t>ERR594375_MED_DCM_25_1.fastq</t>
+  </si>
+  <si>
+    <t>11G</t>
+  </si>
+  <si>
+    <t>ERR594385_EAC_DCM_64_1.fastq</t>
+  </si>
+  <si>
+    <t>12G</t>
+  </si>
+  <si>
+    <t>ERR594392_EAC_SRF_64_1.fastq</t>
+  </si>
+  <si>
+    <t>ERR594396_MED_SRF_25_1.fastq</t>
+  </si>
+  <si>
+    <t>ERR594411_SAT_SRF_78_1.fastq</t>
+  </si>
+  <si>
+    <t>7.6G</t>
+  </si>
+  <si>
+    <t>ERR598949_ARS_DCM_38_1.fastq</t>
+  </si>
+  <si>
+    <t>7.3G</t>
+  </si>
+  <si>
+    <t>ERR598951_MED_SRF_25_1.fastq</t>
+  </si>
+  <si>
+    <t>5.1G</t>
+  </si>
+  <si>
+    <t>ERR598952_CPC_DCM_109_1.fastq</t>
+  </si>
+  <si>
+    <t>ERR598959_RS_SRF_34_1.fastq</t>
+  </si>
+  <si>
+    <t>45G</t>
+  </si>
+  <si>
+    <t>ERR598961_SP_DCM_111_1.fastq</t>
+  </si>
+  <si>
+    <t>39G</t>
+  </si>
+  <si>
+    <t>ERR598971_CPC_MES_109_1.fastq</t>
+  </si>
+  <si>
+    <t>9.7G</t>
+  </si>
+  <si>
+    <t>ERR598972_EAC_DCM_64_1.fastq</t>
+  </si>
+  <si>
+    <t>ERR598975_RS_DCM_34_1.fastq</t>
+  </si>
+  <si>
+    <t>ERR598987_NP_DCM_137_1.fastq</t>
+  </si>
+  <si>
+    <t>ERR598989_NP_SRF_137_1.fastq</t>
+  </si>
+  <si>
+    <t>20G</t>
+  </si>
+  <si>
+    <t>ERR598991_RS_SRF_34_1.fastq</t>
+  </si>
+  <si>
+    <t>ERR598997_CPC_SRF_109_1.fastq</t>
+  </si>
+  <si>
+    <t>49G</t>
+  </si>
+  <si>
+    <t>ERR599006_SAT_SRF_78_1.fastq</t>
+  </si>
+  <si>
+    <t>ERR599015_NP_MES_137_1.fastq</t>
+  </si>
+  <si>
+    <t>ERR599021_EAC_MES_64_1.fastq</t>
+  </si>
+  <si>
+    <t>ERR599022_SAT_SRF_78_1.fastq</t>
+  </si>
+  <si>
+    <t>ERR599023_EAC_DCM_64_1.fastq</t>
+  </si>
+  <si>
+    <t>42G</t>
+  </si>
+  <si>
+    <t>ERR599030_NP_SRF_138_1.fastq</t>
+  </si>
+  <si>
+    <t>ERR599061_RS_DCM_32_1.fastq</t>
+  </si>
+  <si>
+    <t>26G</t>
+  </si>
+  <si>
+    <t>ERR599065_CPC_DCM_109_1.fastq</t>
+  </si>
+  <si>
+    <t>9.8G</t>
+  </si>
+  <si>
+    <t>ERR599066_SP_SRF_125_1.fastq</t>
+  </si>
+  <si>
+    <t>ERR599067_CPC_MES_109_1.fastq</t>
+  </si>
+  <si>
+    <t>ERR599070_NP_DCM_137_1.fastq</t>
+  </si>
+  <si>
+    <t>ERR599076_NP_MES_137_1.fastq</t>
+  </si>
+  <si>
+    <t>46G</t>
+  </si>
+  <si>
+    <t>ERR599077_SP_SRF_111_1.fastq</t>
+  </si>
+  <si>
+    <t>21G</t>
+  </si>
+  <si>
+    <t>ERR599079_SP_DCM_98_1.fastq</t>
+  </si>
+  <si>
+    <t>ERR599082_ARS_DCM_38_1.fastq</t>
+  </si>
+  <si>
+    <t>ERR599083_SP_MES_122_1.fastq</t>
+  </si>
+  <si>
+    <t>50G</t>
+  </si>
+  <si>
+    <t>ERR599086_SP_MES_111_1.fastq</t>
+  </si>
+  <si>
+    <t>ERR599088_EAC_SRF_64_1.fastq</t>
+  </si>
+  <si>
+    <t>ERR599094_MED_DCM_25_1.fastq</t>
+  </si>
+  <si>
+    <t>ERR599099_NP_DCM_137_1.fastq</t>
+  </si>
+  <si>
+    <t>48G</t>
+  </si>
+  <si>
+    <t>ERR599101_SAT_DCM_78_1.fastq</t>
+  </si>
+  <si>
+    <t>22G</t>
+  </si>
+  <si>
+    <t>ERR599102_ARS_SRF_38_1.fastq</t>
+  </si>
+  <si>
+    <t>10G</t>
+  </si>
+  <si>
+    <t>ERR599108_CPC_DCM_109_1.fastq</t>
+  </si>
+  <si>
+    <t>ERR599111_RS_DCM_34_1.fastq</t>
+  </si>
+  <si>
+    <t>ERR599118_CPC_SRF_109_1.fastq</t>
+  </si>
+  <si>
+    <t>ERR599124_SAT_MES_78_1.fastq</t>
+  </si>
+  <si>
+    <t>ERR599127_NP_MES_137_1.fastq</t>
+  </si>
+  <si>
+    <t>31G</t>
+  </si>
+  <si>
+    <t>ERR599132_CPC_MES_102_1.fastq</t>
+  </si>
+  <si>
+    <t>41G</t>
+  </si>
+  <si>
+    <t>ERR599145_ARS_DCM_39_1.fastq</t>
+  </si>
+  <si>
+    <t>ERR599150_EAC_SRF_64_1.fastq</t>
+  </si>
+  <si>
+    <t>ERR599159_SAT_MES_78_1.fastq</t>
+  </si>
+  <si>
+    <t>ERR599164_EAC_MES_64_1.fastq</t>
+  </si>
+  <si>
+    <t>ERR599353_CPC_SRF_102_1.fastq</t>
+  </si>
+  <si>
+    <t>ERR599357_SP_SRF_111_1.fastq</t>
+  </si>
+  <si>
+    <t>ERR599361_SAT_MES_78_1.fastq</t>
+  </si>
+  <si>
+    <t>8.7G</t>
+  </si>
+  <si>
+    <t>ERR599363_NP_SRF_137_1.fastq</t>
+  </si>
+  <si>
+    <t>ERR599368_SP_MES_111_1.fastq</t>
+  </si>
+  <si>
+    <t>ERR599369_SP_DCM_111_1.fastq</t>
+  </si>
+  <si>
+    <t>ERR315856_2.fastq</t>
+  </si>
+  <si>
+    <t>ERR315857_2.fastq</t>
+  </si>
+  <si>
+    <t>ERR594289_2.fastq</t>
+  </si>
+  <si>
+    <t>ERR594303_2.fastq</t>
+  </si>
+  <si>
+    <t>ERR594327_2.fastq</t>
+  </si>
+  <si>
+    <t>ERR594328_2.fastq</t>
+  </si>
+  <si>
+    <t>37G</t>
+  </si>
+  <si>
+    <t>ERR594332_2.fastq</t>
+  </si>
+  <si>
+    <t>ERR594334_2.fastq</t>
+  </si>
+  <si>
+    <t>ERR594336_2.fastq</t>
+  </si>
+  <si>
+    <t>ERR594340_2.fastq</t>
+  </si>
+  <si>
+    <t>ERR594375_2.fastq</t>
+  </si>
+  <si>
+    <t>ERR594396_2.fastq</t>
+  </si>
+  <si>
+    <t>ERR594411_2.fastq</t>
+  </si>
+  <si>
+    <t>7.5G</t>
+  </si>
+  <si>
+    <t>ERR598949_2.fastq</t>
+  </si>
+  <si>
+    <t>ERR598951_2.fastq</t>
+  </si>
+  <si>
+    <t>ERR598952_2.fastq</t>
+  </si>
+  <si>
+    <t>9.6G</t>
+  </si>
+  <si>
+    <t>ERR598959_2.fastq</t>
+  </si>
+  <si>
+    <t>ERR598961_2.fastq</t>
+  </si>
+  <si>
+    <t>ERR598971_2.fastq</t>
+  </si>
+  <si>
+    <t>9.1G</t>
+  </si>
+  <si>
+    <t>ERR598975_2.fastq</t>
+  </si>
+  <si>
+    <t>ERR598987_2.fastq</t>
+  </si>
+  <si>
+    <t>44G</t>
+  </si>
+  <si>
+    <t>ERR598989_2.fastq</t>
+  </si>
+  <si>
+    <t>ERR598991_2.fastq</t>
+  </si>
+  <si>
+    <t>6.6G</t>
+  </si>
+  <si>
+    <t>ERR598997_2.fastq</t>
+  </si>
+  <si>
+    <t>ERR599006_2.fastq</t>
+  </si>
+  <si>
+    <t>ERR599015_2.fastq</t>
+  </si>
+  <si>
+    <t>ERR599022_2.fastq</t>
+  </si>
+  <si>
+    <t>ERR599030_2.fastq</t>
+  </si>
+  <si>
+    <t>7.2G</t>
+  </si>
+  <si>
+    <t>ERR599046_2.fastq</t>
+  </si>
+  <si>
+    <t>ERR599061_2.fastq</t>
+  </si>
+  <si>
+    <t>ERR599065_2.fastq</t>
+  </si>
+  <si>
+    <t>ERR599066_2.fastq</t>
+  </si>
+  <si>
+    <t>ERR599067_2.fastq</t>
+  </si>
+  <si>
+    <t>ERR599070_2.fastq</t>
+  </si>
+  <si>
+    <t>ERR599076_2.fastq</t>
+  </si>
+  <si>
+    <t>ERR599077_2.fastq</t>
+  </si>
+  <si>
+    <t>ERR599079_2.fastq</t>
+  </si>
+  <si>
+    <t>ERR599082_2.fastq</t>
+  </si>
+  <si>
+    <t>ERR599083_2.fastq</t>
+  </si>
+  <si>
+    <t>ERR599086_2.fastq</t>
+  </si>
+  <si>
+    <t>ERR599094_2.fastq</t>
+  </si>
+  <si>
+    <t>ERR599099_2.fastq</t>
+  </si>
+  <si>
+    <t>ERR599101_2.fastq</t>
+  </si>
+  <si>
+    <t>ERR599102_2.fastq</t>
+  </si>
+  <si>
+    <t>ERR599108_2.fastq</t>
+  </si>
+  <si>
+    <t>ERR599111_2.fastq</t>
+  </si>
+  <si>
+    <t>ERR599118_2.fastq</t>
+  </si>
+  <si>
+    <t>7.4G</t>
+  </si>
+  <si>
+    <t>ERR599124_2.fastq</t>
+  </si>
+  <si>
+    <t>ERR599127_2.fastq</t>
+  </si>
+  <si>
+    <t>ERR599132_2.fastq</t>
+  </si>
+  <si>
+    <t>ERR599145_2.fastq</t>
+  </si>
+  <si>
+    <t>ERR599159_2.fastq</t>
+  </si>
+  <si>
+    <t>ERR599353_2.fastq</t>
+  </si>
+  <si>
+    <t>ERR599357_2.fastq</t>
+  </si>
+  <si>
+    <t>ERR599361_2.fastq</t>
+  </si>
+  <si>
+    <t>8.6G</t>
+  </si>
+  <si>
+    <t>ERR599363_2.fastq</t>
+  </si>
+  <si>
+    <t>ERR599368_2.fastq</t>
+  </si>
+  <si>
+    <t>ERR599369_2.fastq</t>
+  </si>
+  <si>
+    <t>ERR599374_2.fastq</t>
   </si>
 </sst>
 </file>
@@ -1911,7 +2402,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1919,13 +2410,84 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{37CE5624-A840-419C-A5F5-20B8457F03F6}"/>
     <cellStyle name="TableStyleLight1" xfId="2" xr:uid="{45AB4A52-E03B-4CC4-B6A7-DA475D399389}"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="21">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -8886,10 +9448,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB7D1DD5-75A1-461A-BB67-CF6717C1786A}">
-  <dimension ref="A1:BA249"/>
+  <dimension ref="A1:G249"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:P3"/>
+    <sheetView topLeftCell="A234" workbookViewId="0">
+      <selection activeCell="A248" sqref="A248:A249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8897,7 +9459,7 @@
     <col min="1" max="1" width="11.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>207</v>
       </c>
@@ -8913,8 +9475,11 @@
       <c r="E1" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="2" spans="1:53">
+      <c r="G1" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>208</v>
       </c>
@@ -8931,10 +9496,10 @@
         <v>208</v>
       </c>
       <c r="G2" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="3" spans="1:53">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>385</v>
       </c>
@@ -8951,148 +9516,10 @@
         <v>385</v>
       </c>
       <c r="G3" t="s">
-        <v>207</v>
-      </c>
-      <c r="H3" t="s">
-        <v>208</v>
-      </c>
-      <c r="I3" t="s">
-        <v>399</v>
-      </c>
-      <c r="J3" t="s">
-        <v>400</v>
-      </c>
-      <c r="K3" t="s">
-        <v>401</v>
-      </c>
-      <c r="L3" t="s">
-        <v>402</v>
-      </c>
-      <c r="M3" t="s">
-        <v>290</v>
-      </c>
-      <c r="N3" t="s">
-        <v>403</v>
-      </c>
-      <c r="O3" t="s">
-        <v>404</v>
-      </c>
-      <c r="P3" t="s">
-        <v>405</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>406</v>
-      </c>
-      <c r="R3" t="s">
-        <v>312</v>
-      </c>
-      <c r="S3" t="s">
-        <v>407</v>
-      </c>
-      <c r="T3" t="s">
-        <v>408</v>
-      </c>
-      <c r="U3" t="s">
-        <v>409</v>
-      </c>
-      <c r="V3" t="s">
-        <v>410</v>
-      </c>
-      <c r="W3" t="s">
-        <v>411</v>
-      </c>
-      <c r="X3" t="s">
-        <v>412</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>413</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>314</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>414</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>415</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>416</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>417</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>418</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>419</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>420</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>292</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>421</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>422</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>423</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>382</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>424</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>425</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>426</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>427</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>428</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>429</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>430</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>431</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>432</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>433</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>434</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>231</v>
-      </c>
-      <c r="AY3" t="s">
-        <v>435</v>
-      </c>
-      <c r="AZ3" t="s">
-        <v>436</v>
-      </c>
-      <c r="BA3" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="4" spans="1:53">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>386</v>
       </c>
@@ -9108,8 +9535,11 @@
       <c r="E4" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="5" spans="1:53">
+      <c r="G4" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>387</v>
       </c>
@@ -9125,8 +9555,11 @@
       <c r="E5" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="6" spans="1:53">
+      <c r="G5" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>388</v>
       </c>
@@ -9142,8 +9575,11 @@
       <c r="E6" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="7" spans="1:53">
+      <c r="G6" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>389</v>
       </c>
@@ -9159,8 +9595,11 @@
       <c r="E7" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="8" spans="1:53">
+      <c r="G7" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>390</v>
       </c>
@@ -9176,8 +9615,11 @@
       <c r="E8" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="9" spans="1:53">
+      <c r="G8" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>391</v>
       </c>
@@ -9193,8 +9635,11 @@
       <c r="E9" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="10" spans="1:53">
+      <c r="G9" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>392</v>
       </c>
@@ -9210,8 +9655,11 @@
       <c r="E10" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="11" spans="1:53">
+      <c r="G10" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>393</v>
       </c>
@@ -9227,8 +9675,11 @@
       <c r="E11" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="12" spans="1:53">
+      <c r="G11" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>394</v>
       </c>
@@ -9244,8 +9695,11 @@
       <c r="E12" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="13" spans="1:53">
+      <c r="G12" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>395</v>
       </c>
@@ -9261,8 +9715,11 @@
       <c r="E13" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="14" spans="1:53">
+      <c r="G13" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>396</v>
       </c>
@@ -9278,8 +9735,11 @@
       <c r="E14" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="15" spans="1:53">
+      <c r="G14" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>397</v>
       </c>
@@ -9295,8 +9755,11 @@
       <c r="E15" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="16" spans="1:53">
+      <c r="G15" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>398</v>
       </c>
@@ -9312,8 +9775,11 @@
       <c r="E16" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="G16" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>399</v>
       </c>
@@ -9329,8 +9795,11 @@
       <c r="E17" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="G17" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>400</v>
       </c>
@@ -9346,8 +9815,11 @@
       <c r="E18" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="G18" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>401</v>
       </c>
@@ -9363,8 +9835,11 @@
       <c r="E19" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="G19" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>402</v>
       </c>
@@ -9380,8 +9855,11 @@
       <c r="E20" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="G20" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>290</v>
       </c>
@@ -9397,8 +9875,11 @@
       <c r="E21" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="G21" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>403</v>
       </c>
@@ -9414,8 +9895,11 @@
       <c r="E22" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="G22" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>404</v>
       </c>
@@ -9431,8 +9915,11 @@
       <c r="E23" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="G23" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>405</v>
       </c>
@@ -9448,8 +9935,11 @@
       <c r="E24" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="G24" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>406</v>
       </c>
@@ -9465,8 +9955,11 @@
       <c r="E25" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="G25" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>312</v>
       </c>
@@ -9482,8 +9975,11 @@
       <c r="E26" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="G26" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>407</v>
       </c>
@@ -9499,8 +9995,11 @@
       <c r="E27" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="G27" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>408</v>
       </c>
@@ -9516,8 +10015,11 @@
       <c r="E28" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="G28" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>409</v>
       </c>
@@ -9533,8 +10035,11 @@
       <c r="E29" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="G29" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>410</v>
       </c>
@@ -9550,8 +10055,11 @@
       <c r="E30" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="G30" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>411</v>
       </c>
@@ -9567,8 +10075,11 @@
       <c r="E31" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="G31" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
         <v>412</v>
       </c>
@@ -9584,8 +10095,11 @@
       <c r="E32" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="G32" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>413</v>
       </c>
@@ -9601,8 +10115,11 @@
       <c r="E33" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="G33" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>314</v>
       </c>
@@ -9618,8 +10135,11 @@
       <c r="E34" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="G34" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
         <v>414</v>
       </c>
@@ -9635,8 +10155,11 @@
       <c r="E35" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="G35" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
         <v>415</v>
       </c>
@@ -9652,8 +10175,11 @@
       <c r="E36" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="G36" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
         <v>416</v>
       </c>
@@ -9669,8 +10195,11 @@
       <c r="E37" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="G37" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
         <v>417</v>
       </c>
@@ -9686,8 +10215,11 @@
       <c r="E38" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="G38" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" t="s">
         <v>418</v>
       </c>
@@ -9703,8 +10235,11 @@
       <c r="E39" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="G39" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
         <v>419</v>
       </c>
@@ -9720,8 +10255,11 @@
       <c r="E40" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="G40" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" t="s">
         <v>420</v>
       </c>
@@ -9737,8 +10275,11 @@
       <c r="E41" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="G41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" t="s">
         <v>292</v>
       </c>
@@ -9754,8 +10295,11 @@
       <c r="E42" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="G42" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" t="s">
         <v>421</v>
       </c>
@@ -9771,8 +10315,11 @@
       <c r="E43" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="G43" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" t="s">
         <v>422</v>
       </c>
@@ -9788,8 +10335,11 @@
       <c r="E44" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="G44" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" t="s">
         <v>423</v>
       </c>
@@ -9805,8 +10355,11 @@
       <c r="E45" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="G45" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" t="s">
         <v>382</v>
       </c>
@@ -9822,8 +10375,11 @@
       <c r="E46" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="G46" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" t="s">
         <v>424</v>
       </c>
@@ -9839,8 +10395,11 @@
       <c r="E47" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="G47" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" t="s">
         <v>425</v>
       </c>
@@ -9856,8 +10415,11 @@
       <c r="E48" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="G48" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" t="s">
         <v>426</v>
       </c>
@@ -9873,8 +10435,11 @@
       <c r="E49" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="G49" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" t="s">
         <v>427</v>
       </c>
@@ -9890,8 +10455,11 @@
       <c r="E50" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="G50" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" t="s">
         <v>428</v>
       </c>
@@ -9907,8 +10475,11 @@
       <c r="E51" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="G51" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" t="s">
         <v>429</v>
       </c>
@@ -9924,8 +10495,11 @@
       <c r="E52" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="G52" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" t="s">
         <v>430</v>
       </c>
@@ -9941,8 +10515,11 @@
       <c r="E53" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="54" spans="1:5">
+      <c r="G53" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" t="s">
         <v>431</v>
       </c>
@@ -9958,8 +10535,11 @@
       <c r="E54" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="55" spans="1:5">
+      <c r="G54" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" t="s">
         <v>432</v>
       </c>
@@ -9975,8 +10555,11 @@
       <c r="E55" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="G55" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" t="s">
         <v>433</v>
       </c>
@@ -9992,8 +10575,11 @@
       <c r="E56" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="G56" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" t="s">
         <v>434</v>
       </c>
@@ -10009,8 +10595,11 @@
       <c r="E57" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="G57" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" t="s">
         <v>231</v>
       </c>
@@ -10026,8 +10615,11 @@
       <c r="E58" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="59" spans="1:5">
+      <c r="G58" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" t="s">
         <v>435</v>
       </c>
@@ -10043,8 +10635,11 @@
       <c r="E59" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="60" spans="1:5">
+      <c r="G59" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" t="s">
         <v>436</v>
       </c>
@@ -10060,8 +10655,11 @@
       <c r="E60" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="61" spans="1:5">
+      <c r="G60" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" t="s">
         <v>437</v>
       </c>
@@ -10077,8 +10675,11 @@
       <c r="E61" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="62" spans="1:5">
+      <c r="G61" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" t="s">
         <v>438</v>
       </c>
@@ -10094,8 +10695,11 @@
       <c r="E62" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="G62" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" t="s">
         <v>439</v>
       </c>
@@ -10111,8 +10715,11 @@
       <c r="E63" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="64" spans="1:5">
+      <c r="G63" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" t="s">
         <v>440</v>
       </c>
@@ -10129,7 +10736,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:6">
       <c r="A65" t="s">
         <v>441</v>
       </c>
@@ -10146,7 +10753,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:6">
       <c r="A66" t="s">
         <v>442</v>
       </c>
@@ -10163,7 +10770,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:6">
       <c r="A67" t="s">
         <v>443</v>
       </c>
@@ -10180,7 +10787,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:6">
       <c r="A68" t="s">
         <v>444</v>
       </c>
@@ -10197,7 +10804,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="15.6">
+    <row r="70" spans="1:6" ht="15.6">
       <c r="A70" t="s">
         <v>445</v>
       </c>
@@ -10210,20 +10817,8 @@
       <c r="F70" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G70" s="1">
-        <v>5</v>
-      </c>
-      <c r="H70" t="s">
-        <v>194</v>
-      </c>
-      <c r="I70">
-        <v>0.22</v>
-      </c>
-      <c r="J70">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" ht="15.6">
+    </row>
+    <row r="71" spans="1:6" ht="15.6">
       <c r="A71" t="s">
         <v>447</v>
       </c>
@@ -10242,20 +10837,8 @@
       <c r="F71" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G71" s="1">
-        <v>70</v>
-      </c>
-      <c r="H71" t="s">
-        <v>194</v>
-      </c>
-      <c r="I71">
-        <v>0.22</v>
-      </c>
-      <c r="J71">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" ht="15.6">
+    </row>
+    <row r="72" spans="1:6" ht="15.6">
       <c r="A72" t="s">
         <v>451</v>
       </c>
@@ -10268,20 +10851,8 @@
       <c r="F72" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G72" s="1">
-        <v>5</v>
-      </c>
-      <c r="H72" t="s">
-        <v>194</v>
-      </c>
-      <c r="I72">
-        <v>0.22</v>
-      </c>
-      <c r="J72">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" ht="15.6">
+    </row>
+    <row r="73" spans="1:6" ht="15.6">
       <c r="A73" t="s">
         <v>453</v>
       </c>
@@ -10297,20 +10868,8 @@
       <c r="F73" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G73" s="1">
-        <v>5</v>
-      </c>
-      <c r="H73" t="s">
-        <v>186</v>
-      </c>
-      <c r="I73">
-        <v>0.22</v>
-      </c>
-      <c r="J73">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" ht="15.6">
+    </row>
+    <row r="74" spans="1:6" ht="15.6">
       <c r="A74" t="s">
         <v>415</v>
       </c>
@@ -10323,20 +10882,8 @@
       <c r="F74" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G74" s="1">
-        <v>80</v>
-      </c>
-      <c r="H74" t="s">
-        <v>186</v>
-      </c>
-      <c r="I74">
-        <v>0.22</v>
-      </c>
-      <c r="J74">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" ht="15.6">
+    </row>
+    <row r="75" spans="1:6" ht="15.6">
       <c r="A75" t="s">
         <v>457</v>
       </c>
@@ -10349,20 +10896,8 @@
       <c r="F75" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G75" s="1">
-        <v>5</v>
-      </c>
-      <c r="H75" t="s">
-        <v>186</v>
-      </c>
-      <c r="I75">
-        <v>0.22</v>
-      </c>
-      <c r="J75">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" ht="15.6">
+    </row>
+    <row r="76" spans="1:6" ht="15.6">
       <c r="A76" t="s">
         <v>459</v>
       </c>
@@ -10375,20 +10910,8 @@
       <c r="F76" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G76" s="1">
-        <v>5</v>
-      </c>
-      <c r="H76" t="s">
-        <v>186</v>
-      </c>
-      <c r="I76">
-        <v>0.22</v>
-      </c>
-      <c r="J76">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" ht="15.6">
+    </row>
+    <row r="77" spans="1:6" ht="15.6">
       <c r="A77" t="s">
         <v>208</v>
       </c>
@@ -10398,20 +10921,8 @@
       <c r="F77" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G77" s="1">
-        <v>9</v>
-      </c>
-      <c r="H77" t="s">
-        <v>194</v>
-      </c>
-      <c r="I77">
-        <v>0.22</v>
-      </c>
-      <c r="J77">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" ht="15.6">
+    </row>
+    <row r="78" spans="1:6" ht="15.6">
       <c r="A78" t="s">
         <v>207</v>
       </c>
@@ -10421,20 +10932,8 @@
       <c r="F78" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G78" s="1">
-        <v>42</v>
-      </c>
-      <c r="H78" t="s">
-        <v>194</v>
-      </c>
-      <c r="I78">
-        <v>0.22</v>
-      </c>
-      <c r="J78">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" ht="15.6">
+    </row>
+    <row r="79" spans="1:6" ht="15.6">
       <c r="A79" t="s">
         <v>461</v>
       </c>
@@ -10447,20 +10946,8 @@
       <c r="F79" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G79" s="1">
-        <v>5</v>
-      </c>
-      <c r="H79" t="s">
-        <v>201</v>
-      </c>
-      <c r="I79">
-        <v>0.22</v>
-      </c>
-      <c r="J79">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" ht="15.6">
+    </row>
+    <row r="80" spans="1:6" ht="15.6">
       <c r="A80" t="s">
         <v>463</v>
       </c>
@@ -10476,20 +10963,8 @@
       <c r="F80" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G80" s="1">
-        <v>30</v>
-      </c>
-      <c r="H80" t="s">
-        <v>201</v>
-      </c>
-      <c r="I80">
-        <v>0.22</v>
-      </c>
-      <c r="J80">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" ht="15.6">
+    </row>
+    <row r="81" spans="1:6" ht="15.6">
       <c r="A81" t="s">
         <v>466</v>
       </c>
@@ -10502,20 +10977,8 @@
       <c r="F81" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G81" s="1">
-        <v>850</v>
-      </c>
-      <c r="H81" t="s">
-        <v>201</v>
-      </c>
-      <c r="I81">
-        <v>0.22</v>
-      </c>
-      <c r="J81">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" ht="15.6">
+    </row>
+    <row r="82" spans="1:6" ht="15.6">
       <c r="A82" t="s">
         <v>468</v>
       </c>
@@ -10531,20 +10994,8 @@
       <c r="F82" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G82" s="1">
-        <v>5</v>
-      </c>
-      <c r="H82" t="s">
-        <v>195</v>
-      </c>
-      <c r="I82">
-        <v>0.22</v>
-      </c>
-      <c r="J82">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" ht="15.6">
+    </row>
+    <row r="83" spans="1:6" ht="15.6">
       <c r="A83" t="s">
         <v>471</v>
       </c>
@@ -10557,20 +11008,8 @@
       <c r="F83" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G83" s="1">
-        <v>30</v>
-      </c>
-      <c r="H83" t="s">
-        <v>195</v>
-      </c>
-      <c r="I83">
-        <v>0.22</v>
-      </c>
-      <c r="J83">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" ht="15.6">
+    </row>
+    <row r="84" spans="1:6" ht="15.6">
       <c r="A84" t="s">
         <v>245</v>
       </c>
@@ -10580,20 +11019,8 @@
       <c r="F84" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G84" s="1">
-        <v>5</v>
-      </c>
-      <c r="H84" t="s">
-        <v>201</v>
-      </c>
-      <c r="I84">
-        <v>0.22</v>
-      </c>
-      <c r="J84">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" ht="15.6">
+    </row>
+    <row r="85" spans="1:6" ht="15.6">
       <c r="A85" t="s">
         <v>244</v>
       </c>
@@ -10603,20 +11030,8 @@
       <c r="F85" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G85" s="1">
-        <v>66</v>
-      </c>
-      <c r="H85" t="s">
-        <v>201</v>
-      </c>
-      <c r="I85">
-        <v>0.22</v>
-      </c>
-      <c r="J85">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" ht="15.6">
+    </row>
+    <row r="86" spans="1:6" ht="15.6">
       <c r="A86" t="s">
         <v>243</v>
       </c>
@@ -10626,20 +11041,8 @@
       <c r="F86" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G86" s="1">
-        <v>5</v>
-      </c>
-      <c r="H86" t="s">
-        <v>201</v>
-      </c>
-      <c r="I86">
-        <v>0.22</v>
-      </c>
-      <c r="J86">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" ht="15.6">
+    </row>
+    <row r="87" spans="1:6" ht="15.6">
       <c r="A87" t="s">
         <v>242</v>
       </c>
@@ -10649,20 +11052,8 @@
       <c r="F87" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G87" s="1">
-        <v>5</v>
-      </c>
-      <c r="H87" t="s">
-        <v>201</v>
-      </c>
-      <c r="I87">
-        <v>0.22</v>
-      </c>
-      <c r="J87">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" ht="15.6">
+    </row>
+    <row r="88" spans="1:6" ht="15.6">
       <c r="A88" t="s">
         <v>402</v>
       </c>
@@ -10675,20 +11066,8 @@
       <c r="F88" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G88" s="1">
-        <v>5</v>
-      </c>
-      <c r="H88" t="s">
-        <v>186</v>
-      </c>
-      <c r="I88">
-        <v>0.22</v>
-      </c>
-      <c r="J88">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" ht="15.6">
+    </row>
+    <row r="89" spans="1:6" ht="15.6">
       <c r="A89" t="s">
         <v>405</v>
       </c>
@@ -10701,20 +11080,8 @@
       <c r="F89" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G89" s="1">
-        <v>60</v>
-      </c>
-      <c r="H89" t="s">
-        <v>186</v>
-      </c>
-      <c r="I89">
-        <v>0.22</v>
-      </c>
-      <c r="J89">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" ht="15.6">
+    </row>
+    <row r="90" spans="1:6" ht="15.6">
       <c r="A90" t="s">
         <v>473</v>
       </c>
@@ -10727,20 +11094,8 @@
       <c r="F90" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G90" s="1">
-        <v>17</v>
-      </c>
-      <c r="H90" t="s">
-        <v>201</v>
-      </c>
-      <c r="I90">
-        <v>0.22</v>
-      </c>
-      <c r="J90">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" ht="15.6">
+    </row>
+    <row r="91" spans="1:6" ht="15.6">
       <c r="A91" t="s">
         <v>399</v>
       </c>
@@ -10753,20 +11108,8 @@
       <c r="F91" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G91" s="1">
-        <v>25</v>
-      </c>
-      <c r="H91" t="s">
-        <v>201</v>
-      </c>
-      <c r="I91">
-        <v>0.22</v>
-      </c>
-      <c r="J91">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" ht="15.6">
+    </row>
+    <row r="92" spans="1:6" ht="15.6">
       <c r="A92" t="s">
         <v>231</v>
       </c>
@@ -10776,20 +11119,8 @@
       <c r="F92" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G92" s="1">
-        <v>25</v>
-      </c>
-      <c r="H92" t="s">
-        <v>201</v>
-      </c>
-      <c r="I92">
-        <v>0.22</v>
-      </c>
-      <c r="J92">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" ht="15.6">
+    </row>
+    <row r="93" spans="1:6" ht="15.6">
       <c r="A93" t="s">
         <v>475</v>
       </c>
@@ -10802,20 +11133,8 @@
       <c r="F93" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G93" s="1">
-        <v>5</v>
-      </c>
-      <c r="H93" t="s">
-        <v>201</v>
-      </c>
-      <c r="I93">
-        <v>0.22</v>
-      </c>
-      <c r="J93">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" ht="15.6">
+    </row>
+    <row r="94" spans="1:6" ht="15.6">
       <c r="A94" t="s">
         <v>477</v>
       </c>
@@ -10828,20 +11147,8 @@
       <c r="F94" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G94" s="1">
-        <v>80</v>
-      </c>
-      <c r="H94" t="s">
-        <v>201</v>
-      </c>
-      <c r="I94">
-        <v>0.22</v>
-      </c>
-      <c r="J94">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" ht="15.6">
+    </row>
+    <row r="95" spans="1:6" ht="15.6">
       <c r="A95" t="s">
         <v>479</v>
       </c>
@@ -10854,20 +11161,8 @@
       <c r="F95" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G95" s="1">
-        <v>5</v>
-      </c>
-      <c r="H95" t="s">
-        <v>201</v>
-      </c>
-      <c r="I95">
-        <v>0.22</v>
-      </c>
-      <c r="J95">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" ht="15.6">
+    </row>
+    <row r="96" spans="1:6" ht="15.6">
       <c r="A96" t="s">
         <v>481</v>
       </c>
@@ -10880,20 +11175,8 @@
       <c r="F96" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G96" s="1">
-        <v>5</v>
-      </c>
-      <c r="H96" t="s">
-        <v>201</v>
-      </c>
-      <c r="I96">
-        <v>0.22</v>
-      </c>
-      <c r="J96">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" ht="15.6">
+    </row>
+    <row r="97" spans="1:6" ht="15.6">
       <c r="A97" t="s">
         <v>483</v>
       </c>
@@ -10906,20 +11189,8 @@
       <c r="F97" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G97" s="1">
-        <v>75</v>
-      </c>
-      <c r="H97" t="s">
-        <v>201</v>
-      </c>
-      <c r="I97">
-        <v>0.22</v>
-      </c>
-      <c r="J97">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" ht="15.6">
+    </row>
+    <row r="98" spans="1:6" ht="15.6">
       <c r="A98" t="s">
         <v>485</v>
       </c>
@@ -10932,20 +11203,8 @@
       <c r="F98" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G98" s="1">
-        <v>5</v>
-      </c>
-      <c r="H98" t="s">
-        <v>201</v>
-      </c>
-      <c r="I98">
-        <v>0.22</v>
-      </c>
-      <c r="J98">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" ht="15.6">
+    </row>
+    <row r="99" spans="1:6" ht="15.6">
       <c r="A99" t="s">
         <v>487</v>
       </c>
@@ -10958,20 +11217,8 @@
       <c r="F99" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G99" s="1">
-        <v>5</v>
-      </c>
-      <c r="H99" t="s">
-        <v>201</v>
-      </c>
-      <c r="I99">
-        <v>0.22</v>
-      </c>
-      <c r="J99">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" ht="15.6">
+    </row>
+    <row r="100" spans="1:6" ht="15.6">
       <c r="A100" t="s">
         <v>489</v>
       </c>
@@ -10984,20 +11231,8 @@
       <c r="F100" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G100" s="1">
-        <v>60</v>
-      </c>
-      <c r="H100" t="s">
-        <v>201</v>
-      </c>
-      <c r="I100">
-        <v>0.22</v>
-      </c>
-      <c r="J100">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" ht="15.6">
+    </row>
+    <row r="101" spans="1:6" ht="15.6">
       <c r="A101" t="s">
         <v>491</v>
       </c>
@@ -11010,20 +11245,8 @@
       <c r="F101" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G101" s="1">
-        <v>600</v>
-      </c>
-      <c r="H101" t="s">
-        <v>201</v>
-      </c>
-      <c r="I101">
-        <v>0.22</v>
-      </c>
-      <c r="J101">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" ht="15.6">
+    </row>
+    <row r="102" spans="1:6" ht="15.6">
       <c r="A102" t="s">
         <v>291</v>
       </c>
@@ -11033,20 +11256,8 @@
       <c r="F102" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G102" s="1">
-        <v>1000</v>
-      </c>
-      <c r="H102" t="s">
-        <v>201</v>
-      </c>
-      <c r="I102">
-        <v>0.22</v>
-      </c>
-      <c r="J102">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" ht="15.6">
+    </row>
+    <row r="103" spans="1:6" ht="15.6">
       <c r="A103" t="s">
         <v>493</v>
       </c>
@@ -11062,20 +11273,8 @@
       <c r="F103" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G103" s="1">
-        <v>5</v>
-      </c>
-      <c r="H103" t="s">
-        <v>201</v>
-      </c>
-      <c r="I103">
-        <v>0.22</v>
-      </c>
-      <c r="J103">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" ht="15.6">
+    </row>
+    <row r="104" spans="1:6" ht="15.6">
       <c r="A104" t="s">
         <v>404</v>
       </c>
@@ -11091,20 +11290,8 @@
       <c r="F104" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G104" s="1">
-        <v>65</v>
-      </c>
-      <c r="H104" t="s">
-        <v>201</v>
-      </c>
-      <c r="I104">
-        <v>0.22</v>
-      </c>
-      <c r="J104">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" ht="15.6">
+    </row>
+    <row r="105" spans="1:6" ht="15.6">
       <c r="A105" t="s">
         <v>411</v>
       </c>
@@ -11117,20 +11304,8 @@
       <c r="F105" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G105" s="1">
-        <v>1000</v>
-      </c>
-      <c r="H105" t="s">
-        <v>201</v>
-      </c>
-      <c r="I105">
-        <v>0.22</v>
-      </c>
-      <c r="J105">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" ht="15.6">
+    </row>
+    <row r="106" spans="1:6" ht="15.6">
       <c r="A106" t="s">
         <v>495</v>
       </c>
@@ -11143,20 +11318,8 @@
       <c r="F106" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G106" s="1">
-        <v>5</v>
-      </c>
-      <c r="H106" t="s">
-        <v>195</v>
-      </c>
-      <c r="I106">
-        <v>0.22</v>
-      </c>
-      <c r="J106">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" ht="15.6">
+    </row>
+    <row r="107" spans="1:6" ht="15.6">
       <c r="A107" t="s">
         <v>497</v>
       </c>
@@ -11169,20 +11332,8 @@
       <c r="F107" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G107" s="1">
-        <v>100</v>
-      </c>
-      <c r="H107" t="s">
-        <v>195</v>
-      </c>
-      <c r="I107">
-        <v>0.22</v>
-      </c>
-      <c r="J107">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" ht="15.6">
+    </row>
+    <row r="108" spans="1:6" ht="15.6">
       <c r="A108" t="s">
         <v>499</v>
       </c>
@@ -11195,20 +11346,8 @@
       <c r="F108" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G108" s="1">
-        <v>800</v>
-      </c>
-      <c r="H108" t="s">
-        <v>195</v>
-      </c>
-      <c r="I108">
-        <v>0.22</v>
-      </c>
-      <c r="J108">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" ht="15.6">
+    </row>
+    <row r="109" spans="1:6" ht="15.6">
       <c r="A109" t="s">
         <v>501</v>
       </c>
@@ -11221,20 +11360,8 @@
       <c r="F109" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G109" s="1">
-        <v>5</v>
-      </c>
-      <c r="H109" t="s">
-        <v>195</v>
-      </c>
-      <c r="I109">
-        <v>0.22</v>
-      </c>
-      <c r="J109">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" ht="15.6">
+    </row>
+    <row r="110" spans="1:6" ht="15.6">
       <c r="A110" t="s">
         <v>503</v>
       </c>
@@ -11247,20 +11374,8 @@
       <c r="F110" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G110" s="1">
-        <v>700</v>
-      </c>
-      <c r="H110" t="s">
-        <v>195</v>
-      </c>
-      <c r="I110">
-        <v>0.22</v>
-      </c>
-      <c r="J110">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" ht="15.6">
+    </row>
+    <row r="111" spans="1:6" ht="15.6">
       <c r="A111" t="s">
         <v>505</v>
       </c>
@@ -11276,20 +11391,8 @@
       <c r="F111" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G111" s="1">
-        <v>5</v>
-      </c>
-      <c r="H111" t="s">
-        <v>195</v>
-      </c>
-      <c r="I111">
-        <v>0.22</v>
-      </c>
-      <c r="J111">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" ht="15.6">
+    </row>
+    <row r="112" spans="1:6" ht="15.6">
       <c r="A112" t="s">
         <v>508</v>
       </c>
@@ -11305,20 +11408,8 @@
       <c r="F112" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G112" s="1">
-        <v>50</v>
-      </c>
-      <c r="H112" t="s">
-        <v>195</v>
-      </c>
-      <c r="I112">
-        <v>0.22</v>
-      </c>
-      <c r="J112">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" ht="15.6">
+    </row>
+    <row r="113" spans="1:6" ht="15.6">
       <c r="A113" t="s">
         <v>511</v>
       </c>
@@ -11331,20 +11422,8 @@
       <c r="F113" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G113" s="1">
-        <v>5</v>
-      </c>
-      <c r="H113" t="s">
-        <v>195</v>
-      </c>
-      <c r="I113">
-        <v>0.22</v>
-      </c>
-      <c r="J113">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" ht="15.6">
+    </row>
+    <row r="114" spans="1:6" ht="15.6">
       <c r="A114" t="s">
         <v>513</v>
       </c>
@@ -11357,20 +11436,8 @@
       <c r="F114" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G114" s="1">
-        <v>800</v>
-      </c>
-      <c r="H114" t="s">
-        <v>195</v>
-      </c>
-      <c r="I114">
-        <v>0.22</v>
-      </c>
-      <c r="J114">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" ht="15.6">
+    </row>
+    <row r="115" spans="1:6" ht="15.6">
       <c r="A115" t="s">
         <v>515</v>
       </c>
@@ -11383,20 +11450,8 @@
       <c r="F115" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G115" s="1">
-        <v>5</v>
-      </c>
-      <c r="H115" t="s">
-        <v>195</v>
-      </c>
-      <c r="I115">
-        <v>0.22</v>
-      </c>
-      <c r="J115">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" ht="15.6">
+    </row>
+    <row r="116" spans="1:6" ht="15.6">
       <c r="A116" t="s">
         <v>517</v>
       </c>
@@ -11409,20 +11464,8 @@
       <c r="F116" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G116" s="1">
-        <v>150</v>
-      </c>
-      <c r="H116" t="s">
-        <v>195</v>
-      </c>
-      <c r="I116">
-        <v>0.22</v>
-      </c>
-      <c r="J116">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" ht="15.6">
+    </row>
+    <row r="117" spans="1:6" ht="15.6">
       <c r="A117" t="s">
         <v>409</v>
       </c>
@@ -11435,20 +11478,8 @@
       <c r="F117" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G117" s="1">
-        <v>5</v>
-      </c>
-      <c r="H117" t="s">
-        <v>195</v>
-      </c>
-      <c r="I117">
-        <v>0.22</v>
-      </c>
-      <c r="J117">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" ht="15.6">
+    </row>
+    <row r="118" spans="1:6" ht="15.6">
       <c r="A118" t="s">
         <v>414</v>
       </c>
@@ -11461,20 +11492,8 @@
       <c r="F118" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G118" s="1">
-        <v>120</v>
-      </c>
-      <c r="H118" t="s">
-        <v>195</v>
-      </c>
-      <c r="I118">
-        <v>0.22</v>
-      </c>
-      <c r="J118">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" ht="15.6">
+    </row>
+    <row r="119" spans="1:6" ht="15.6">
       <c r="A119" t="s">
         <v>292</v>
       </c>
@@ -11484,20 +11503,8 @@
       <c r="F119" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G119" s="1">
-        <v>5</v>
-      </c>
-      <c r="H119" t="s">
-        <v>196</v>
-      </c>
-      <c r="I119">
-        <v>0.22</v>
-      </c>
-      <c r="J119">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" ht="15.6">
+    </row>
+    <row r="120" spans="1:6" ht="15.6">
       <c r="A120" t="s">
         <v>290</v>
       </c>
@@ -11507,20 +11514,8 @@
       <c r="F120" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G120" s="1">
-        <v>90</v>
-      </c>
-      <c r="H120" t="s">
-        <v>196</v>
-      </c>
-      <c r="I120">
-        <v>0.22</v>
-      </c>
-      <c r="J120">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" ht="15.6">
+    </row>
+    <row r="121" spans="1:6" ht="15.6">
       <c r="A121" t="s">
         <v>382</v>
       </c>
@@ -11530,20 +11525,8 @@
       <c r="F121" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G121" s="1">
-        <v>350</v>
-      </c>
-      <c r="H121" t="s">
-        <v>196</v>
-      </c>
-      <c r="I121">
-        <v>0.22</v>
-      </c>
-      <c r="J121">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" ht="15.6">
+    </row>
+    <row r="122" spans="1:6" ht="15.6">
       <c r="A122" t="s">
         <v>306</v>
       </c>
@@ -11553,20 +11536,8 @@
       <c r="F122" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G122" s="1">
-        <v>5</v>
-      </c>
-      <c r="H122" t="s">
-        <v>196</v>
-      </c>
-      <c r="I122">
-        <v>0.22</v>
-      </c>
-      <c r="J122">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" ht="15.6">
+    </row>
+    <row r="123" spans="1:6" ht="15.6">
       <c r="A123" t="s">
         <v>305</v>
       </c>
@@ -11576,20 +11547,8 @@
       <c r="F123" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G123" s="1">
-        <v>40</v>
-      </c>
-      <c r="H123" t="s">
-        <v>196</v>
-      </c>
-      <c r="I123">
-        <v>0.22</v>
-      </c>
-      <c r="J123">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" ht="15.6">
+    </row>
+    <row r="124" spans="1:6" ht="15.6">
       <c r="A124" t="s">
         <v>519</v>
       </c>
@@ -11608,20 +11567,8 @@
       <c r="F124" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G124" s="1">
-        <v>5</v>
-      </c>
-      <c r="H124" t="s">
-        <v>196</v>
-      </c>
-      <c r="I124">
-        <v>0.22</v>
-      </c>
-      <c r="J124">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" ht="15.6">
+    </row>
+    <row r="125" spans="1:6" ht="15.6">
       <c r="A125" t="s">
         <v>523</v>
       </c>
@@ -11640,20 +11587,8 @@
       <c r="F125" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G125" s="1">
-        <v>120</v>
-      </c>
-      <c r="H125" t="s">
-        <v>196</v>
-      </c>
-      <c r="I125">
-        <v>0.22</v>
-      </c>
-      <c r="J125">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" ht="15.6">
+    </row>
+    <row r="126" spans="1:6" ht="15.6">
       <c r="A126" t="s">
         <v>527</v>
       </c>
@@ -11672,20 +11607,8 @@
       <c r="F126" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G126" s="1">
-        <v>600</v>
-      </c>
-      <c r="H126" t="s">
-        <v>196</v>
-      </c>
-      <c r="I126">
-        <v>0.22</v>
-      </c>
-      <c r="J126">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" ht="15.6">
+    </row>
+    <row r="127" spans="1:6" ht="15.6">
       <c r="A127" t="s">
         <v>300</v>
       </c>
@@ -11695,20 +11618,8 @@
       <c r="F127" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G127" s="1">
-        <v>5</v>
-      </c>
-      <c r="H127" t="s">
-        <v>196</v>
-      </c>
-      <c r="I127">
-        <v>0.22</v>
-      </c>
-      <c r="J127">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" ht="15.6">
+    </row>
+    <row r="128" spans="1:6" ht="15.6">
       <c r="A128" t="s">
         <v>530</v>
       </c>
@@ -11727,20 +11638,8 @@
       <c r="F128" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G128" s="1">
-        <v>150</v>
-      </c>
-      <c r="H128" t="s">
-        <v>196</v>
-      </c>
-      <c r="I128">
-        <v>0.22</v>
-      </c>
-      <c r="J128">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" ht="15.6">
+    </row>
+    <row r="129" spans="1:6" ht="15.6">
       <c r="A129" t="s">
         <v>296</v>
       </c>
@@ -11750,20 +11649,8 @@
       <c r="F129" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G129" s="1">
-        <v>115</v>
-      </c>
-      <c r="H129" t="s">
-        <v>196</v>
-      </c>
-      <c r="I129">
-        <v>0.22</v>
-      </c>
-      <c r="J129">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" ht="15.6">
+    </row>
+    <row r="130" spans="1:6" ht="15.6">
       <c r="A130" t="s">
         <v>432</v>
       </c>
@@ -11776,20 +11663,8 @@
       <c r="F130" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G130" s="1">
-        <v>800</v>
-      </c>
-      <c r="H130" t="s">
-        <v>195</v>
-      </c>
-      <c r="I130">
-        <v>0.22</v>
-      </c>
-      <c r="J130">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" ht="15.6">
+    </row>
+    <row r="131" spans="1:6" ht="15.6">
       <c r="A131" t="s">
         <v>534</v>
       </c>
@@ -11802,20 +11677,8 @@
       <c r="F131" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G131" s="1">
-        <v>800</v>
-      </c>
-      <c r="H131" t="s">
-        <v>195</v>
-      </c>
-      <c r="I131">
-        <v>0.22</v>
-      </c>
-      <c r="J131">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" ht="15.6">
+    </row>
+    <row r="132" spans="1:6" ht="15.6">
       <c r="A132" t="s">
         <v>536</v>
       </c>
@@ -11828,20 +11691,8 @@
       <c r="F132" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G132" s="1">
-        <v>40</v>
-      </c>
-      <c r="H132" t="s">
-        <v>195</v>
-      </c>
-      <c r="I132">
-        <v>0.22</v>
-      </c>
-      <c r="J132">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" ht="15.6">
+    </row>
+    <row r="133" spans="1:6" ht="15.6">
       <c r="A133" t="s">
         <v>538</v>
       </c>
@@ -11854,20 +11705,8 @@
       <c r="F133" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G133" s="1">
-        <v>5</v>
-      </c>
-      <c r="H133" t="s">
-        <v>195</v>
-      </c>
-      <c r="I133">
-        <v>0.22</v>
-      </c>
-      <c r="J133">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" ht="15.6">
+    </row>
+    <row r="134" spans="1:6" ht="15.6">
       <c r="A134" t="s">
         <v>540</v>
       </c>
@@ -11880,20 +11719,8 @@
       <c r="F134" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G134" s="1">
-        <v>5</v>
-      </c>
-      <c r="H134" t="s">
-        <v>197</v>
-      </c>
-      <c r="I134">
-        <v>0.22</v>
-      </c>
-      <c r="J134">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" ht="15.6">
+    </row>
+    <row r="135" spans="1:6" ht="15.6">
       <c r="A135" t="s">
         <v>542</v>
       </c>
@@ -11906,20 +11733,8 @@
       <c r="F135" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G135" s="1">
-        <v>5</v>
-      </c>
-      <c r="H135" t="s">
-        <v>197</v>
-      </c>
-      <c r="I135">
-        <v>0.22</v>
-      </c>
-      <c r="J135">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" ht="15.6">
+    </row>
+    <row r="136" spans="1:6" ht="15.6">
       <c r="A136" t="s">
         <v>544</v>
       </c>
@@ -11932,20 +11747,8 @@
       <c r="F136" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G136" s="1">
-        <v>90</v>
-      </c>
-      <c r="H136" t="s">
-        <v>197</v>
-      </c>
-      <c r="I136">
-        <v>0.22</v>
-      </c>
-      <c r="J136">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" ht="15.6">
+    </row>
+    <row r="137" spans="1:6" ht="15.6">
       <c r="A137" t="s">
         <v>546</v>
       </c>
@@ -11958,20 +11761,8 @@
       <c r="F137" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G137" s="1">
-        <v>790</v>
-      </c>
-      <c r="H137" t="s">
-        <v>197</v>
-      </c>
-      <c r="I137">
-        <v>0.22</v>
-      </c>
-      <c r="J137">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" ht="15.6">
+    </row>
+    <row r="138" spans="1:6" ht="15.6">
       <c r="A138" t="s">
         <v>277</v>
       </c>
@@ -11981,20 +11772,8 @@
       <c r="F138" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G138" s="1">
-        <v>5</v>
-      </c>
-      <c r="H138" t="s">
-        <v>196</v>
-      </c>
-      <c r="I138">
-        <v>0.22</v>
-      </c>
-      <c r="J138">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" ht="15.6">
+    </row>
+    <row r="139" spans="1:6" ht="15.6">
       <c r="A139" t="s">
         <v>548</v>
       </c>
@@ -12007,20 +11786,8 @@
       <c r="F139" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G139" s="1">
-        <v>5</v>
-      </c>
-      <c r="H139" t="s">
-        <v>196</v>
-      </c>
-      <c r="I139">
-        <v>0.22</v>
-      </c>
-      <c r="J139">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" ht="15.6">
+    </row>
+    <row r="140" spans="1:6" ht="15.6">
       <c r="A140" t="s">
         <v>550</v>
       </c>
@@ -12036,20 +11803,8 @@
       <c r="F140" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G140" s="1">
-        <v>40</v>
-      </c>
-      <c r="H140" t="s">
-        <v>196</v>
-      </c>
-      <c r="I140">
-        <v>0.22</v>
-      </c>
-      <c r="J140">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" ht="15.6">
+    </row>
+    <row r="141" spans="1:6" ht="15.6">
       <c r="A141" t="s">
         <v>408</v>
       </c>
@@ -12062,20 +11817,8 @@
       <c r="F141" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G141" s="1">
-        <v>5</v>
-      </c>
-      <c r="H141" t="s">
-        <v>198</v>
-      </c>
-      <c r="I141">
-        <v>0.22</v>
-      </c>
-      <c r="J141">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" ht="15.6">
+    </row>
+    <row r="142" spans="1:6" ht="15.6">
       <c r="A142" t="s">
         <v>401</v>
       </c>
@@ -12091,20 +11834,8 @@
       <c r="F142" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G142" s="1">
-        <v>30</v>
-      </c>
-      <c r="H142" t="s">
-        <v>198</v>
-      </c>
-      <c r="I142">
-        <v>0.22</v>
-      </c>
-      <c r="J142">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" ht="15.6">
+    </row>
+    <row r="143" spans="1:6" ht="15.6">
       <c r="A143" t="s">
         <v>403</v>
       </c>
@@ -12117,20 +11848,8 @@
       <c r="F143" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G143" s="1">
-        <v>380</v>
-      </c>
-      <c r="H143" t="s">
-        <v>198</v>
-      </c>
-      <c r="I143">
-        <v>0.22</v>
-      </c>
-      <c r="J143">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" ht="15.6">
+    </row>
+    <row r="144" spans="1:6" ht="15.6">
       <c r="A144" t="s">
         <v>295</v>
       </c>
@@ -12140,20 +11859,8 @@
       <c r="F144" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G144" s="1">
-        <v>5</v>
-      </c>
-      <c r="H144" t="s">
-        <v>196</v>
-      </c>
-      <c r="I144">
-        <v>0.22</v>
-      </c>
-      <c r="J144">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10" ht="15.6">
+    </row>
+    <row r="145" spans="1:6" ht="15.6">
       <c r="A145" t="s">
         <v>293</v>
       </c>
@@ -12163,20 +11870,8 @@
       <c r="F145" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G145" s="1">
-        <v>155</v>
-      </c>
-      <c r="H145" t="s">
-        <v>196</v>
-      </c>
-      <c r="I145">
-        <v>0.22</v>
-      </c>
-      <c r="J145">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10" ht="15.6">
+    </row>
+    <row r="146" spans="1:6" ht="15.6">
       <c r="A146" t="s">
         <v>383</v>
       </c>
@@ -12186,20 +11881,8 @@
       <c r="F146" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G146" s="1">
-        <v>696</v>
-      </c>
-      <c r="H146" t="s">
-        <v>196</v>
-      </c>
-      <c r="I146">
-        <v>0.22</v>
-      </c>
-      <c r="J146">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10" ht="15.6">
+    </row>
+    <row r="147" spans="1:6" ht="15.6">
       <c r="A147" t="s">
         <v>553</v>
       </c>
@@ -12215,20 +11898,8 @@
       <c r="F147" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G147" s="1">
-        <v>480</v>
-      </c>
-      <c r="H147" t="s">
-        <v>196</v>
-      </c>
-      <c r="I147">
-        <v>0.22</v>
-      </c>
-      <c r="J147">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10" ht="15.6">
+    </row>
+    <row r="148" spans="1:6" ht="15.6">
       <c r="A148" t="s">
         <v>555</v>
       </c>
@@ -12244,20 +11915,8 @@
       <c r="F148" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G148" s="1">
-        <v>177</v>
-      </c>
-      <c r="H148" t="s">
-        <v>196</v>
-      </c>
-      <c r="I148">
-        <v>0.22</v>
-      </c>
-      <c r="J148">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10" ht="15.6">
+    </row>
+    <row r="149" spans="1:6" ht="15.6">
       <c r="A149" t="s">
         <v>558</v>
       </c>
@@ -12273,20 +11932,8 @@
       <c r="F149" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G149" s="1">
-        <v>5</v>
-      </c>
-      <c r="H149" t="s">
-        <v>196</v>
-      </c>
-      <c r="I149">
-        <v>0.22</v>
-      </c>
-      <c r="J149">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10" ht="15.6">
+    </row>
+    <row r="150" spans="1:6" ht="15.6">
       <c r="A150" t="s">
         <v>561</v>
       </c>
@@ -12299,20 +11946,8 @@
       <c r="F150" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G150" s="1">
-        <v>50</v>
-      </c>
-      <c r="H150" t="s">
-        <v>196</v>
-      </c>
-      <c r="I150">
-        <v>0.22</v>
-      </c>
-      <c r="J150">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10" ht="15.6">
+    </row>
+    <row r="151" spans="1:6" ht="15.6">
       <c r="A151" t="s">
         <v>274</v>
       </c>
@@ -12322,20 +11957,8 @@
       <c r="F151" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G151" s="1">
-        <v>5</v>
-      </c>
-      <c r="H151" t="s">
-        <v>196</v>
-      </c>
-      <c r="I151">
-        <v>0.22</v>
-      </c>
-      <c r="J151">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="152" spans="1:10" ht="15.6">
+    </row>
+    <row r="152" spans="1:6" ht="15.6">
       <c r="A152" t="s">
         <v>563</v>
       </c>
@@ -12348,20 +11971,8 @@
       <c r="F152" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G152" s="1">
-        <v>488</v>
-      </c>
-      <c r="H152" t="s">
-        <v>196</v>
-      </c>
-      <c r="I152">
-        <v>0.22</v>
-      </c>
-      <c r="J152">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10" ht="15.6">
+    </row>
+    <row r="153" spans="1:6" ht="15.6">
       <c r="A153" t="s">
         <v>565</v>
       </c>
@@ -12374,20 +11985,8 @@
       <c r="F153" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G153" s="1">
-        <v>5</v>
-      </c>
-      <c r="H153" t="s">
-        <v>196</v>
-      </c>
-      <c r="I153">
-        <v>0.22</v>
-      </c>
-      <c r="J153">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10" ht="15.6">
+    </row>
+    <row r="154" spans="1:6" ht="15.6">
       <c r="A154" t="s">
         <v>567</v>
       </c>
@@ -12400,20 +11999,8 @@
       <c r="F154" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G154" s="1">
-        <v>188</v>
-      </c>
-      <c r="H154" t="s">
-        <v>196</v>
-      </c>
-      <c r="I154">
-        <v>0.22</v>
-      </c>
-      <c r="J154">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="155" spans="1:10" ht="15.6">
+    </row>
+    <row r="155" spans="1:6" ht="15.6">
       <c r="A155" t="s">
         <v>273</v>
       </c>
@@ -12423,20 +12010,8 @@
       <c r="F155" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G155" s="1">
-        <v>5</v>
-      </c>
-      <c r="H155" t="s">
-        <v>196</v>
-      </c>
-      <c r="I155">
-        <v>0.22</v>
-      </c>
-      <c r="J155">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10" ht="15.6">
+    </row>
+    <row r="156" spans="1:6" ht="15.6">
       <c r="A156" t="s">
         <v>271</v>
       </c>
@@ -12446,20 +12021,8 @@
       <c r="F156" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G156" s="1">
-        <v>35</v>
-      </c>
-      <c r="H156" t="s">
-        <v>196</v>
-      </c>
-      <c r="I156">
-        <v>0.22</v>
-      </c>
-      <c r="J156">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="157" spans="1:10" ht="15.6">
+    </row>
+    <row r="157" spans="1:6" ht="15.6">
       <c r="A157" t="s">
         <v>272</v>
       </c>
@@ -12469,20 +12032,8 @@
       <c r="F157" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G157" s="1">
-        <v>5</v>
-      </c>
-      <c r="H157" t="s">
-        <v>196</v>
-      </c>
-      <c r="I157">
-        <v>0.22</v>
-      </c>
-      <c r="J157">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="158" spans="1:10" ht="15.6">
+    </row>
+    <row r="158" spans="1:6" ht="15.6">
       <c r="A158" t="s">
         <v>381</v>
       </c>
@@ -12492,20 +12043,8 @@
       <c r="F158" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G158" s="1">
-        <v>380</v>
-      </c>
-      <c r="H158" t="s">
-        <v>196</v>
-      </c>
-      <c r="I158">
-        <v>0.22</v>
-      </c>
-      <c r="J158">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="159" spans="1:10" ht="15.6">
+    </row>
+    <row r="159" spans="1:6" ht="15.6">
       <c r="A159" t="s">
         <v>310</v>
       </c>
@@ -12515,20 +12054,8 @@
       <c r="F159" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G159" s="1">
-        <v>5</v>
-      </c>
-      <c r="H159" t="s">
-        <v>198</v>
-      </c>
-      <c r="I159">
-        <v>0.22</v>
-      </c>
-      <c r="J159">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="160" spans="1:10" ht="15.6">
+    </row>
+    <row r="160" spans="1:6" ht="15.6">
       <c r="A160" t="s">
         <v>309</v>
       </c>
@@ -12538,20 +12065,8 @@
       <c r="F160" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G160" s="1">
-        <v>45</v>
-      </c>
-      <c r="H160" t="s">
-        <v>198</v>
-      </c>
-      <c r="I160">
-        <v>0.22</v>
-      </c>
-      <c r="J160">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="161" spans="1:10" ht="15.6">
+    </row>
+    <row r="161" spans="1:6" ht="15.6">
       <c r="A161" t="s">
         <v>368</v>
       </c>
@@ -12561,20 +12076,8 @@
       <c r="F161" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G161" s="1">
-        <v>650</v>
-      </c>
-      <c r="H161" t="s">
-        <v>198</v>
-      </c>
-      <c r="I161">
-        <v>0.22</v>
-      </c>
-      <c r="J161">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="162" spans="1:10" ht="15.6">
+    </row>
+    <row r="162" spans="1:6" ht="15.6">
       <c r="A162" t="s">
         <v>289</v>
       </c>
@@ -12584,20 +12087,8 @@
       <c r="F162" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G162" s="1">
-        <v>5</v>
-      </c>
-      <c r="H162" t="s">
-        <v>196</v>
-      </c>
-      <c r="I162">
-        <v>0.22</v>
-      </c>
-      <c r="J162">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="163" spans="1:10" ht="15.6">
+    </row>
+    <row r="163" spans="1:6" ht="15.6">
       <c r="A163" t="s">
         <v>287</v>
       </c>
@@ -12607,20 +12098,8 @@
       <c r="F163" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G163" s="1">
-        <v>50</v>
-      </c>
-      <c r="H163" t="s">
-        <v>196</v>
-      </c>
-      <c r="I163">
-        <v>0.22</v>
-      </c>
-      <c r="J163">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="164" spans="1:10" ht="15.6">
+    </row>
+    <row r="164" spans="1:6" ht="15.6">
       <c r="A164" t="s">
         <v>298</v>
       </c>
@@ -12630,20 +12109,8 @@
       <c r="F164" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G164" s="1">
-        <v>5</v>
-      </c>
-      <c r="H164" t="s">
-        <v>196</v>
-      </c>
-      <c r="I164">
-        <v>0.22</v>
-      </c>
-      <c r="J164">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="165" spans="1:10" ht="15.6">
+    </row>
+    <row r="165" spans="1:6" ht="15.6">
       <c r="A165" t="s">
         <v>417</v>
       </c>
@@ -12662,20 +12129,8 @@
       <c r="F165" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G165" s="1">
-        <v>5</v>
-      </c>
-      <c r="H165" t="s">
-        <v>196</v>
-      </c>
-      <c r="I165">
-        <v>0.22</v>
-      </c>
-      <c r="J165">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="166" spans="1:10" ht="15.6">
+    </row>
+    <row r="166" spans="1:6" ht="15.6">
       <c r="A166" t="s">
         <v>303</v>
       </c>
@@ -12685,20 +12140,8 @@
       <c r="F166" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G166" s="1">
-        <v>140</v>
-      </c>
-      <c r="H166" t="s">
-        <v>196</v>
-      </c>
-      <c r="I166">
-        <v>0.22</v>
-      </c>
-      <c r="J166">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="167" spans="1:10" ht="15.6">
+    </row>
+    <row r="167" spans="1:6" ht="15.6">
       <c r="A167" t="s">
         <v>321</v>
       </c>
@@ -12708,20 +12151,8 @@
       <c r="F167" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G167" s="1">
-        <v>5</v>
-      </c>
-      <c r="H167" t="s">
-        <v>199</v>
-      </c>
-      <c r="I167">
-        <v>0.22</v>
-      </c>
-      <c r="J167">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="168" spans="1:10" ht="15.6">
+    </row>
+    <row r="168" spans="1:6" ht="15.6">
       <c r="A168" t="s">
         <v>320</v>
       </c>
@@ -12731,20 +12162,8 @@
       <c r="F168" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G168" s="1">
-        <v>590</v>
-      </c>
-      <c r="H168" t="s">
-        <v>199</v>
-      </c>
-      <c r="I168">
-        <v>0.22</v>
-      </c>
-      <c r="J168">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="169" spans="1:10" ht="15.6">
+    </row>
+    <row r="169" spans="1:6" ht="15.6">
       <c r="A169" t="s">
         <v>322</v>
       </c>
@@ -12754,20 +12173,8 @@
       <c r="F169" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G169" s="1">
-        <v>640</v>
-      </c>
-      <c r="H169" t="s">
-        <v>199</v>
-      </c>
-      <c r="I169">
-        <v>0.22</v>
-      </c>
-      <c r="J169">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="170" spans="1:10" ht="15.6">
+    </row>
+    <row r="170" spans="1:6" ht="15.6">
       <c r="A170" t="s">
         <v>334</v>
       </c>
@@ -12777,20 +12184,8 @@
       <c r="F170" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G170" s="1">
-        <v>5</v>
-      </c>
-      <c r="H170" t="s">
-        <v>199</v>
-      </c>
-      <c r="I170">
-        <v>0.22</v>
-      </c>
-      <c r="J170">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="171" spans="1:10" ht="15.6">
+    </row>
+    <row r="171" spans="1:6" ht="15.6">
       <c r="A171" t="s">
         <v>333</v>
       </c>
@@ -12800,20 +12195,8 @@
       <c r="F171" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G171" s="1">
-        <v>25</v>
-      </c>
-      <c r="H171" t="s">
-        <v>199</v>
-      </c>
-      <c r="I171">
-        <v>0.22</v>
-      </c>
-      <c r="J171">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="172" spans="1:10" ht="15.6">
+    </row>
+    <row r="172" spans="1:6" ht="15.6">
       <c r="A172" t="s">
         <v>332</v>
       </c>
@@ -12823,20 +12206,8 @@
       <c r="F172" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G172" s="1">
-        <v>800</v>
-      </c>
-      <c r="H172" t="s">
-        <v>199</v>
-      </c>
-      <c r="I172">
-        <v>0.22</v>
-      </c>
-      <c r="J172">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="173" spans="1:10" ht="15.6">
+    </row>
+    <row r="173" spans="1:6" ht="15.6">
       <c r="A173" t="s">
         <v>365</v>
       </c>
@@ -12846,20 +12217,8 @@
       <c r="F173" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G173" s="1">
-        <v>550</v>
-      </c>
-      <c r="H173" t="s">
-        <v>198</v>
-      </c>
-      <c r="I173">
-        <v>0.22</v>
-      </c>
-      <c r="J173">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="174" spans="1:10" ht="15.6">
+    </row>
+    <row r="174" spans="1:6" ht="15.6">
       <c r="A174" t="s">
         <v>308</v>
       </c>
@@ -12869,20 +12228,8 @@
       <c r="F174" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G174" s="1">
-        <v>5</v>
-      </c>
-      <c r="H174" t="s">
-        <v>198</v>
-      </c>
-      <c r="I174">
-        <v>0.22</v>
-      </c>
-      <c r="J174">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="175" spans="1:10" ht="15.6">
+    </row>
+    <row r="175" spans="1:6" ht="15.6">
       <c r="A175" t="s">
         <v>307</v>
       </c>
@@ -12892,20 +12239,8 @@
       <c r="F175" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G175" s="1">
-        <v>115</v>
-      </c>
-      <c r="H175" t="s">
-        <v>198</v>
-      </c>
-      <c r="I175">
-        <v>0.22</v>
-      </c>
-      <c r="J175">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="176" spans="1:10" ht="15.6">
+    </row>
+    <row r="176" spans="1:6" ht="15.6">
       <c r="A176" t="s">
         <v>312</v>
       </c>
@@ -12915,20 +12250,8 @@
       <c r="F176" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G176" s="1">
-        <v>5</v>
-      </c>
-      <c r="H176" t="s">
-        <v>198</v>
-      </c>
-      <c r="I176">
-        <v>0.22</v>
-      </c>
-      <c r="J176">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="177" spans="1:10" ht="15.6">
+    </row>
+    <row r="177" spans="1:6" ht="15.6">
       <c r="A177" t="s">
         <v>323</v>
       </c>
@@ -12938,20 +12261,8 @@
       <c r="F177" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G177" s="1">
-        <v>5</v>
-      </c>
-      <c r="H177" t="s">
-        <v>199</v>
-      </c>
-      <c r="I177">
-        <v>0.22</v>
-      </c>
-      <c r="J177">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="178" spans="1:10" ht="15.6">
+    </row>
+    <row r="178" spans="1:6" ht="15.6">
       <c r="A178" t="s">
         <v>330</v>
       </c>
@@ -12961,20 +12272,8 @@
       <c r="F178" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G178" s="1">
-        <v>80</v>
-      </c>
-      <c r="H178" t="s">
-        <v>199</v>
-      </c>
-      <c r="I178">
-        <v>0.22</v>
-      </c>
-      <c r="J178">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="179" spans="1:10" ht="15.6">
+    </row>
+    <row r="179" spans="1:6" ht="15.6">
       <c r="A179" t="s">
         <v>331</v>
       </c>
@@ -12984,20 +12283,8 @@
       <c r="F179" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G179" s="1">
-        <v>5</v>
-      </c>
-      <c r="H179" t="s">
-        <v>199</v>
-      </c>
-      <c r="I179">
-        <v>0.22</v>
-      </c>
-      <c r="J179">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="180" spans="1:10" ht="15.6">
+    </row>
+    <row r="180" spans="1:6" ht="15.6">
       <c r="A180" t="s">
         <v>324</v>
       </c>
@@ -13007,20 +12294,8 @@
       <c r="F180" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G180" s="1">
-        <v>5</v>
-      </c>
-      <c r="H180" t="s">
-        <v>199</v>
-      </c>
-      <c r="I180">
-        <v>0.22</v>
-      </c>
-      <c r="J180">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="181" spans="1:10" ht="15.6">
+    </row>
+    <row r="181" spans="1:6" ht="15.6">
       <c r="A181" t="s">
         <v>325</v>
       </c>
@@ -13030,20 +12305,8 @@
       <c r="F181" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G181" s="1">
-        <v>250</v>
-      </c>
-      <c r="H181" t="s">
-        <v>199</v>
-      </c>
-      <c r="I181">
-        <v>0.22</v>
-      </c>
-      <c r="J181">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="182" spans="1:10" ht="15.6">
+    </row>
+    <row r="182" spans="1:6" ht="15.6">
       <c r="A182" t="s">
         <v>327</v>
       </c>
@@ -13053,20 +12316,8 @@
       <c r="F182" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G182" s="1">
-        <v>5</v>
-      </c>
-      <c r="H182" t="s">
-        <v>199</v>
-      </c>
-      <c r="I182">
-        <v>0.22</v>
-      </c>
-      <c r="J182">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="183" spans="1:10" ht="15.6">
+    </row>
+    <row r="183" spans="1:6" ht="15.6">
       <c r="A183" t="s">
         <v>326</v>
       </c>
@@ -13076,20 +12327,8 @@
       <c r="F183" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G183" s="1">
-        <v>740</v>
-      </c>
-      <c r="H183" t="s">
-        <v>199</v>
-      </c>
-      <c r="I183">
-        <v>0.22</v>
-      </c>
-      <c r="J183">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="184" spans="1:10" ht="15.6">
+    </row>
+    <row r="184" spans="1:6" ht="15.6">
       <c r="A184" t="s">
         <v>329</v>
       </c>
@@ -13099,20 +12338,8 @@
       <c r="F184" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G184" s="1">
-        <v>5</v>
-      </c>
-      <c r="H184" t="s">
-        <v>199</v>
-      </c>
-      <c r="I184">
-        <v>0.22</v>
-      </c>
-      <c r="J184">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="185" spans="1:10" ht="15.6">
+    </row>
+    <row r="185" spans="1:6" ht="15.6">
       <c r="A185" t="s">
         <v>328</v>
       </c>
@@ -13122,20 +12349,8 @@
       <c r="F185" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G185" s="1">
-        <v>40</v>
-      </c>
-      <c r="H185" t="s">
-        <v>199</v>
-      </c>
-      <c r="I185">
-        <v>0.22</v>
-      </c>
-      <c r="J185">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="186" spans="1:10" ht="15.6">
+    </row>
+    <row r="186" spans="1:6" ht="15.6">
       <c r="A186" t="s">
         <v>316</v>
       </c>
@@ -13145,20 +12360,8 @@
       <c r="F186" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G186" s="1">
-        <v>5</v>
-      </c>
-      <c r="H186" t="s">
-        <v>199</v>
-      </c>
-      <c r="I186">
-        <v>0.22</v>
-      </c>
-      <c r="J186">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="187" spans="1:10" ht="15.6">
+    </row>
+    <row r="187" spans="1:6" ht="15.6">
       <c r="A187" t="s">
         <v>406</v>
       </c>
@@ -13177,20 +12380,8 @@
       <c r="F187" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G187" s="1">
-        <v>40</v>
-      </c>
-      <c r="H187" t="s">
-        <v>198</v>
-      </c>
-      <c r="I187">
-        <v>0.22</v>
-      </c>
-      <c r="J187">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="188" spans="1:10" ht="15.6">
+    </row>
+    <row r="188" spans="1:6" ht="15.6">
       <c r="A188" t="s">
         <v>410</v>
       </c>
@@ -13209,20 +12400,8 @@
       <c r="F188" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G188" s="1">
-        <v>375</v>
-      </c>
-      <c r="H188" t="s">
-        <v>198</v>
-      </c>
-      <c r="I188">
-        <v>0.22</v>
-      </c>
-      <c r="J188">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="189" spans="1:10" ht="15.6">
+    </row>
+    <row r="189" spans="1:6" ht="15.6">
       <c r="A189" t="s">
         <v>314</v>
       </c>
@@ -13232,20 +12411,8 @@
       <c r="F189" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G189" s="1">
-        <v>5</v>
-      </c>
-      <c r="H189" t="s">
-        <v>198</v>
-      </c>
-      <c r="I189">
-        <v>0.22</v>
-      </c>
-      <c r="J189">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="190" spans="1:10" ht="15.6">
+    </row>
+    <row r="190" spans="1:6" ht="15.6">
       <c r="A190" t="s">
         <v>313</v>
       </c>
@@ -13255,20 +12422,8 @@
       <c r="F190" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G190" s="1">
-        <v>60</v>
-      </c>
-      <c r="H190" t="s">
-        <v>198</v>
-      </c>
-      <c r="I190">
-        <v>0.22</v>
-      </c>
-      <c r="J190">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="191" spans="1:10" ht="15.6">
+    </row>
+    <row r="191" spans="1:6" ht="15.6">
       <c r="A191" t="s">
         <v>573</v>
       </c>
@@ -13287,20 +12442,8 @@
       <c r="F191" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G191" s="1">
-        <v>450</v>
-      </c>
-      <c r="H191" t="s">
-        <v>198</v>
-      </c>
-      <c r="I191">
-        <v>0.22</v>
-      </c>
-      <c r="J191">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="192" spans="1:10" ht="15.6">
+    </row>
+    <row r="192" spans="1:6" ht="15.6">
       <c r="A192" t="s">
         <v>315</v>
       </c>
@@ -13310,20 +12453,8 @@
       <c r="F192" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G192" s="1">
-        <v>5</v>
-      </c>
-      <c r="H192" t="s">
-        <v>198</v>
-      </c>
-      <c r="I192">
-        <v>0.22</v>
-      </c>
-      <c r="J192">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="193" spans="1:10" ht="15.6">
+    </row>
+    <row r="193" spans="1:6" ht="15.6">
       <c r="A193" t="s">
         <v>318</v>
       </c>
@@ -13333,20 +12464,8 @@
       <c r="F193" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G193" s="1">
-        <v>640</v>
-      </c>
-      <c r="H193" t="s">
-        <v>199</v>
-      </c>
-      <c r="I193">
-        <v>0.22</v>
-      </c>
-      <c r="J193">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="194" spans="1:10" ht="15.6">
+    </row>
+    <row r="194" spans="1:6" ht="15.6">
       <c r="A194" t="s">
         <v>319</v>
       </c>
@@ -13356,20 +12475,8 @@
       <c r="F194" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G194" s="1">
-        <v>5</v>
-      </c>
-      <c r="H194" t="s">
-        <v>199</v>
-      </c>
-      <c r="I194">
-        <v>0.22</v>
-      </c>
-      <c r="J194">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="195" spans="1:10" ht="15.6">
+    </row>
+    <row r="195" spans="1:6" ht="15.6">
       <c r="A195" t="s">
         <v>317</v>
       </c>
@@ -13379,20 +12486,8 @@
       <c r="F195" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G195" s="1">
-        <v>125</v>
-      </c>
-      <c r="H195" t="s">
-        <v>199</v>
-      </c>
-      <c r="I195">
-        <v>0.22</v>
-      </c>
-      <c r="J195">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="196" spans="1:10" ht="15.6">
+    </row>
+    <row r="196" spans="1:6" ht="15.6">
       <c r="A196" t="s">
         <v>337</v>
       </c>
@@ -13402,20 +12497,8 @@
       <c r="F196" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G196" s="1">
-        <v>5</v>
-      </c>
-      <c r="H196" t="s">
-        <v>199</v>
-      </c>
-      <c r="I196">
-        <v>0.22</v>
-      </c>
-      <c r="J196">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="197" spans="1:10" ht="15.6">
+    </row>
+    <row r="197" spans="1:6" ht="15.6">
       <c r="A197" t="s">
         <v>335</v>
       </c>
@@ -13425,20 +12508,8 @@
       <c r="F197" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G197" s="1">
-        <v>40</v>
-      </c>
-      <c r="H197" t="s">
-        <v>199</v>
-      </c>
-      <c r="I197">
-        <v>0.22</v>
-      </c>
-      <c r="J197">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="198" spans="1:10" ht="15.6">
+    </row>
+    <row r="198" spans="1:6" ht="15.6">
       <c r="A198" t="s">
         <v>336</v>
       </c>
@@ -13448,20 +12519,8 @@
       <c r="F198" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G198" s="1">
-        <v>751</v>
-      </c>
-      <c r="H198" t="s">
-        <v>199</v>
-      </c>
-      <c r="I198">
-        <v>0.22</v>
-      </c>
-      <c r="J198">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="199" spans="1:10" ht="15.6">
+    </row>
+    <row r="199" spans="1:6" ht="15.6">
       <c r="A199" t="s">
         <v>343</v>
       </c>
@@ -13471,20 +12530,8 @@
       <c r="F199" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G199" s="1">
-        <v>5</v>
-      </c>
-      <c r="H199" t="s">
-        <v>200</v>
-      </c>
-      <c r="I199">
-        <v>0.22</v>
-      </c>
-      <c r="J199">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="200" spans="1:10" ht="15.6">
+    </row>
+    <row r="200" spans="1:6" ht="15.6">
       <c r="A200" t="s">
         <v>342</v>
       </c>
@@ -13494,20 +12541,8 @@
       <c r="F200" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G200" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="H200" t="s">
-        <v>200</v>
-      </c>
-      <c r="I200">
-        <v>0.22</v>
-      </c>
-      <c r="J200">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="201" spans="1:10" ht="15.6">
+    </row>
+    <row r="201" spans="1:6" ht="15.6">
       <c r="A201" t="s">
         <v>341</v>
       </c>
@@ -13517,20 +12552,8 @@
       <c r="F201" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G201" s="1">
-        <v>40</v>
-      </c>
-      <c r="H201" t="s">
-        <v>200</v>
-      </c>
-      <c r="I201">
-        <v>0.22</v>
-      </c>
-      <c r="J201">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="202" spans="1:10" ht="15.6">
+    </row>
+    <row r="202" spans="1:6" ht="15.6">
       <c r="A202" t="s">
         <v>346</v>
       </c>
@@ -13540,20 +12563,8 @@
       <c r="F202" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G202" s="1">
-        <v>5</v>
-      </c>
-      <c r="H202" t="s">
-        <v>200</v>
-      </c>
-      <c r="I202">
-        <v>0.22</v>
-      </c>
-      <c r="J202">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="203" spans="1:10" ht="15.6">
+    </row>
+    <row r="203" spans="1:6" ht="15.6">
       <c r="A203" t="s">
         <v>345</v>
       </c>
@@ -13563,20 +12574,8 @@
       <c r="F203" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G203" s="1">
-        <v>35</v>
-      </c>
-      <c r="H203" t="s">
-        <v>200</v>
-      </c>
-      <c r="I203">
-        <v>0.22</v>
-      </c>
-      <c r="J203">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="204" spans="1:10" ht="15.6">
+    </row>
+    <row r="204" spans="1:6" ht="15.6">
       <c r="A204" t="s">
         <v>344</v>
       </c>
@@ -13586,20 +12585,8 @@
       <c r="F204" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G204" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="H204" t="s">
-        <v>200</v>
-      </c>
-      <c r="I204">
-        <v>0.22</v>
-      </c>
-      <c r="J204">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="205" spans="1:10" ht="15.6">
+    </row>
+    <row r="205" spans="1:6" ht="15.6">
       <c r="A205" t="s">
         <v>347</v>
       </c>
@@ -13609,20 +12596,8 @@
       <c r="F205" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G205" s="1">
-        <v>5</v>
-      </c>
-      <c r="H205" t="s">
-        <v>200</v>
-      </c>
-      <c r="I205">
-        <v>0.22</v>
-      </c>
-      <c r="J205">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="206" spans="1:10" ht="15.6">
+    </row>
+    <row r="206" spans="1:6" ht="15.6">
       <c r="A206" t="s">
         <v>348</v>
       </c>
@@ -13632,20 +12607,8 @@
       <c r="F206" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G206" s="1">
-        <v>199</v>
-      </c>
-      <c r="H206" t="s">
-        <v>200</v>
-      </c>
-      <c r="I206">
-        <v>0.22</v>
-      </c>
-      <c r="J206">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="207" spans="1:10" ht="15.6">
+    </row>
+    <row r="207" spans="1:6" ht="15.6">
       <c r="A207" t="s">
         <v>229</v>
       </c>
@@ -13655,20 +12618,8 @@
       <c r="F207" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G207" s="1">
-        <v>499</v>
-      </c>
-      <c r="H207" t="s">
-        <v>200</v>
-      </c>
-      <c r="I207">
-        <v>0.22</v>
-      </c>
-      <c r="J207">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="208" spans="1:10" ht="15.6">
+    </row>
+    <row r="208" spans="1:6" ht="15.6">
       <c r="A208" t="s">
         <v>349</v>
       </c>
@@ -13678,20 +12629,8 @@
       <c r="F208" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G208" s="1">
-        <v>5</v>
-      </c>
-      <c r="H208" t="s">
-        <v>200</v>
-      </c>
-      <c r="I208">
-        <v>0.22</v>
-      </c>
-      <c r="J208">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="209" spans="1:10" ht="15.6">
+    </row>
+    <row r="209" spans="1:6" ht="15.6">
       <c r="A209" t="s">
         <v>351</v>
       </c>
@@ -13701,20 +12640,8 @@
       <c r="F209" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G209" s="1">
-        <v>30</v>
-      </c>
-      <c r="H209" t="s">
-        <v>200</v>
-      </c>
-      <c r="I209">
-        <v>0.22</v>
-      </c>
-      <c r="J209">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="210" spans="1:10" ht="15.6">
+    </row>
+    <row r="210" spans="1:6" ht="15.6">
       <c r="A210" t="s">
         <v>353</v>
       </c>
@@ -13724,20 +12651,8 @@
       <c r="F210" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G210" s="1">
-        <v>5</v>
-      </c>
-      <c r="H210" t="s">
-        <v>200</v>
-      </c>
-      <c r="I210">
-        <v>0.22</v>
-      </c>
-      <c r="J210">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="211" spans="1:10" ht="15.6">
+    </row>
+    <row r="211" spans="1:6" ht="15.6">
       <c r="A211" t="s">
         <v>352</v>
       </c>
@@ -13747,20 +12662,8 @@
       <c r="F211" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G211" s="1">
-        <v>17</v>
-      </c>
-      <c r="H211" t="s">
-        <v>200</v>
-      </c>
-      <c r="I211">
-        <v>0.22</v>
-      </c>
-      <c r="J211">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="212" spans="1:10" ht="15.6">
+    </row>
+    <row r="212" spans="1:6" ht="15.6">
       <c r="A212" t="s">
         <v>355</v>
       </c>
@@ -13770,20 +12673,8 @@
       <c r="F212" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G212" s="1">
-        <v>5</v>
-      </c>
-      <c r="H212" t="s">
-        <v>200</v>
-      </c>
-      <c r="I212">
-        <v>0.22</v>
-      </c>
-      <c r="J212">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="213" spans="1:10" ht="15.6">
+    </row>
+    <row r="213" spans="1:6" ht="15.6">
       <c r="A213" t="s">
         <v>354</v>
       </c>
@@ -13793,20 +12684,8 @@
       <c r="F213" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G213" s="1">
-        <v>20</v>
-      </c>
-      <c r="H213" t="s">
-        <v>200</v>
-      </c>
-      <c r="I213">
-        <v>0.22</v>
-      </c>
-      <c r="J213">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="214" spans="1:10" ht="15.6">
+    </row>
+    <row r="214" spans="1:6" ht="15.6">
       <c r="A214" t="s">
         <v>232</v>
       </c>
@@ -13816,20 +12695,8 @@
       <c r="F214" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G214" s="1">
-        <v>299</v>
-      </c>
-      <c r="H214" t="s">
-        <v>200</v>
-      </c>
-      <c r="I214">
-        <v>0.22</v>
-      </c>
-      <c r="J214">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="215" spans="1:10" ht="15.6">
+    </row>
+    <row r="215" spans="1:6" ht="15.6">
       <c r="A215" t="s">
         <v>356</v>
       </c>
@@ -13839,20 +12706,8 @@
       <c r="F215" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G215" s="1">
-        <v>5</v>
-      </c>
-      <c r="H215" t="s">
-        <v>200</v>
-      </c>
-      <c r="I215">
-        <v>0.22</v>
-      </c>
-      <c r="J215">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="216" spans="1:10" ht="15.6">
+    </row>
+    <row r="216" spans="1:6" ht="15.6">
       <c r="A216" t="s">
         <v>360</v>
       </c>
@@ -13862,20 +12717,8 @@
       <c r="F216" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G216" s="1">
-        <v>5</v>
-      </c>
-      <c r="H216" t="s">
-        <v>200</v>
-      </c>
-      <c r="I216">
-        <v>0.22</v>
-      </c>
-      <c r="J216">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="217" spans="1:10" ht="15.6">
+    </row>
+    <row r="217" spans="1:6" ht="15.6">
       <c r="A217" t="s">
         <v>258</v>
       </c>
@@ -13885,20 +12728,8 @@
       <c r="F217" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G217" s="1">
-        <v>391</v>
-      </c>
-      <c r="H217" t="s">
-        <v>200</v>
-      </c>
-      <c r="I217">
-        <v>0.22</v>
-      </c>
-      <c r="J217">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="218" spans="1:10" ht="15.6">
+    </row>
+    <row r="218" spans="1:6" ht="15.6">
       <c r="A218" t="s">
         <v>371</v>
       </c>
@@ -13908,20 +12739,8 @@
       <c r="F218" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G218" s="1">
-        <v>5</v>
-      </c>
-      <c r="H218" t="s">
-        <v>200</v>
-      </c>
-      <c r="I218">
-        <v>0.22</v>
-      </c>
-      <c r="J218">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="219" spans="1:10" ht="15.6">
+    </row>
+    <row r="219" spans="1:6" ht="15.6">
       <c r="A219" t="s">
         <v>369</v>
       </c>
@@ -13931,20 +12750,8 @@
       <c r="F219" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G219" s="1">
-        <v>5</v>
-      </c>
-      <c r="H219" t="s">
-        <v>200</v>
-      </c>
-      <c r="I219">
-        <v>0.22</v>
-      </c>
-      <c r="J219">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="220" spans="1:10" ht="15.6">
+    </row>
+    <row r="220" spans="1:6" ht="15.6">
       <c r="A220" t="s">
         <v>256</v>
       </c>
@@ -13954,20 +12761,8 @@
       <c r="F220" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G220" s="1">
-        <v>351</v>
-      </c>
-      <c r="H220" t="s">
-        <v>200</v>
-      </c>
-      <c r="I220">
-        <v>0.22</v>
-      </c>
-      <c r="J220">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="221" spans="1:10" ht="15.6">
+    </row>
+    <row r="221" spans="1:6" ht="15.6">
       <c r="A221" t="s">
         <v>366</v>
       </c>
@@ -13977,20 +12772,8 @@
       <c r="F221" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G221" s="1">
-        <v>5</v>
-      </c>
-      <c r="H221" t="s">
-        <v>200</v>
-      </c>
-      <c r="I221">
-        <v>0.22</v>
-      </c>
-      <c r="J221">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="222" spans="1:10" ht="15.6">
+    </row>
+    <row r="222" spans="1:6" ht="15.6">
       <c r="A222" t="s">
         <v>250</v>
       </c>
@@ -14000,20 +12783,8 @@
       <c r="F222" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G222" s="1">
-        <v>411</v>
-      </c>
-      <c r="H222" t="s">
-        <v>200</v>
-      </c>
-      <c r="I222">
-        <v>0.22</v>
-      </c>
-      <c r="J222">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="223" spans="1:10" ht="15.6">
+    </row>
+    <row r="223" spans="1:6" ht="15.6">
       <c r="A223" t="s">
         <v>350</v>
       </c>
@@ -14023,20 +12794,8 @@
       <c r="F223" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G223" s="1">
-        <v>5</v>
-      </c>
-      <c r="H223" t="s">
-        <v>200</v>
-      </c>
-      <c r="I223">
-        <v>0.22</v>
-      </c>
-      <c r="J223">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="224" spans="1:10" ht="15.6">
+    </row>
+    <row r="224" spans="1:6" ht="15.6">
       <c r="A224" t="s">
         <v>367</v>
       </c>
@@ -14046,20 +12805,8 @@
       <c r="F224" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G224" s="1">
-        <v>5</v>
-      </c>
-      <c r="H224" t="s">
-        <v>200</v>
-      </c>
-      <c r="I224">
-        <v>0.22</v>
-      </c>
-      <c r="J224">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="225" spans="1:10" ht="15.6">
+    </row>
+    <row r="225" spans="1:6" ht="15.6">
       <c r="A225" t="s">
         <v>364</v>
       </c>
@@ -14069,20 +12816,8 @@
       <c r="F225" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G225" s="1">
-        <v>5</v>
-      </c>
-      <c r="H225" t="s">
-        <v>200</v>
-      </c>
-      <c r="I225">
-        <v>0.22</v>
-      </c>
-      <c r="J225">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="226" spans="1:10" ht="15.6">
+    </row>
+    <row r="226" spans="1:6" ht="15.6">
       <c r="A226" t="s">
         <v>247</v>
       </c>
@@ -14092,20 +12827,8 @@
       <c r="F226" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G226" s="1">
-        <v>491</v>
-      </c>
-      <c r="H226" t="s">
-        <v>200</v>
-      </c>
-      <c r="I226">
-        <v>0.22</v>
-      </c>
-      <c r="J226">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="227" spans="1:10" ht="15.6">
+    </row>
+    <row r="227" spans="1:6" ht="15.6">
       <c r="A227" t="s">
         <v>362</v>
       </c>
@@ -14115,20 +12838,8 @@
       <c r="F227" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G227" s="1">
-        <v>5</v>
-      </c>
-      <c r="H227" t="s">
-        <v>200</v>
-      </c>
-      <c r="I227">
-        <v>0.22</v>
-      </c>
-      <c r="J227">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="228" spans="1:10" ht="15.6">
+    </row>
+    <row r="228" spans="1:6" ht="15.6">
       <c r="A228" t="s">
         <v>361</v>
       </c>
@@ -14138,20 +12849,8 @@
       <c r="F228" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G228" s="1">
-        <v>36</v>
-      </c>
-      <c r="H228" t="s">
-        <v>200</v>
-      </c>
-      <c r="I228">
-        <v>0.22</v>
-      </c>
-      <c r="J228">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="229" spans="1:10" ht="15.6">
+    </row>
+    <row r="229" spans="1:6" ht="15.6">
       <c r="A229" t="s">
         <v>241</v>
       </c>
@@ -14161,20 +12860,8 @@
       <c r="F229" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G229" s="1">
-        <v>441</v>
-      </c>
-      <c r="H229" t="s">
-        <v>200</v>
-      </c>
-      <c r="I229">
-        <v>0.22</v>
-      </c>
-      <c r="J229">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="230" spans="1:10" ht="15.6">
+    </row>
+    <row r="230" spans="1:6" ht="15.6">
       <c r="A230" t="s">
         <v>358</v>
       </c>
@@ -14184,20 +12871,8 @@
       <c r="F230" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G230" s="1">
-        <v>35</v>
-      </c>
-      <c r="H230" t="s">
-        <v>200</v>
-      </c>
-      <c r="I230">
-        <v>0.22</v>
-      </c>
-      <c r="J230">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="231" spans="1:10" ht="15.6">
+    </row>
+    <row r="231" spans="1:6" ht="15.6">
       <c r="A231" t="s">
         <v>359</v>
       </c>
@@ -14207,20 +12882,8 @@
       <c r="F231" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G231" s="1">
-        <v>5</v>
-      </c>
-      <c r="H231" t="s">
-        <v>200</v>
-      </c>
-      <c r="I231">
-        <v>0.22</v>
-      </c>
-      <c r="J231">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="232" spans="1:10" ht="15.6">
+    </row>
+    <row r="232" spans="1:6" ht="15.6">
       <c r="A232" t="s">
         <v>357</v>
       </c>
@@ -14230,20 +12893,8 @@
       <c r="F232" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G232" s="1">
-        <v>5</v>
-      </c>
-      <c r="H232" t="s">
-        <v>200</v>
-      </c>
-      <c r="I232">
-        <v>0.22</v>
-      </c>
-      <c r="J232">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="233" spans="1:10" ht="15.6">
+    </row>
+    <row r="233" spans="1:6" ht="15.6">
       <c r="A233" t="s">
         <v>339</v>
       </c>
@@ -14253,20 +12904,8 @@
       <c r="F233" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G233" s="1">
-        <v>5</v>
-      </c>
-      <c r="H233" t="s">
-        <v>200</v>
-      </c>
-      <c r="I233">
-        <v>0.22</v>
-      </c>
-      <c r="J233">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="234" spans="1:10" ht="15.6">
+    </row>
+    <row r="234" spans="1:6" ht="15.6">
       <c r="A234" t="s">
         <v>338</v>
       </c>
@@ -14276,20 +12915,8 @@
       <c r="F234" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G234" s="1">
-        <v>25</v>
-      </c>
-      <c r="H234" t="s">
-        <v>200</v>
-      </c>
-      <c r="I234">
-        <v>0.22</v>
-      </c>
-      <c r="J234">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="235" spans="1:10" ht="15.6">
+    </row>
+    <row r="235" spans="1:6" ht="15.6">
       <c r="A235" t="s">
         <v>227</v>
       </c>
@@ -14299,20 +12926,8 @@
       <c r="F235" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G235" s="1">
-        <v>651</v>
-      </c>
-      <c r="H235" t="s">
-        <v>200</v>
-      </c>
-      <c r="I235">
-        <v>0.22</v>
-      </c>
-      <c r="J235">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="236" spans="1:10" ht="15.6">
+    </row>
+    <row r="236" spans="1:6" ht="15.6">
       <c r="A236" t="s">
         <v>340</v>
       </c>
@@ -14322,20 +12937,8 @@
       <c r="F236" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G236" s="1">
-        <v>5</v>
-      </c>
-      <c r="H236" t="s">
-        <v>200</v>
-      </c>
-      <c r="I236">
-        <v>0.22</v>
-      </c>
-      <c r="J236">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="237" spans="1:10" ht="15.6">
+    </row>
+    <row r="237" spans="1:6" ht="15.6">
       <c r="A237" t="s">
         <v>577</v>
       </c>
@@ -14348,20 +12951,8 @@
       <c r="F237" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G237" s="1">
-        <v>5</v>
-      </c>
-      <c r="H237" t="s">
-        <v>194</v>
-      </c>
-      <c r="I237">
-        <v>0.22</v>
-      </c>
-      <c r="J237">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="238" spans="1:10" ht="15.6">
+    </row>
+    <row r="238" spans="1:6" ht="15.6">
       <c r="A238" t="s">
         <v>579</v>
       </c>
@@ -14374,20 +12965,8 @@
       <c r="F238" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G238" s="1">
-        <v>55</v>
-      </c>
-      <c r="H238" t="s">
-        <v>194</v>
-      </c>
-      <c r="I238">
-        <v>0.22</v>
-      </c>
-      <c r="J238">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="239" spans="1:10" ht="15.6">
+    </row>
+    <row r="239" spans="1:6" ht="15.6">
       <c r="A239" t="s">
         <v>400</v>
       </c>
@@ -14400,20 +12979,8 @@
       <c r="F239" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G239" s="1">
-        <v>5</v>
-      </c>
-      <c r="H239" t="s">
-        <v>194</v>
-      </c>
-      <c r="I239">
-        <v>0.22</v>
-      </c>
-      <c r="J239">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="240" spans="1:10" ht="15.6">
+    </row>
+    <row r="240" spans="1:6" ht="15.6">
       <c r="A240" t="s">
         <v>425</v>
       </c>
@@ -14426,20 +12993,8 @@
       <c r="F240" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G240" s="1">
-        <v>50</v>
-      </c>
-      <c r="H240" t="s">
-        <v>194</v>
-      </c>
-      <c r="I240">
-        <v>0.22</v>
-      </c>
-      <c r="J240">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="241" spans="1:10" ht="15.6">
+    </row>
+    <row r="241" spans="1:6" ht="15.6">
       <c r="A241" t="s">
         <v>583</v>
       </c>
@@ -14452,20 +13007,8 @@
       <c r="F241" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G241" s="1">
-        <v>60</v>
-      </c>
-      <c r="H241" t="s">
-        <v>194</v>
-      </c>
-      <c r="I241">
-        <v>0.22</v>
-      </c>
-      <c r="J241">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="242" spans="1:10" ht="15.6">
+    </row>
+    <row r="242" spans="1:6" ht="15.6">
       <c r="A242" t="s">
         <v>585</v>
       </c>
@@ -14478,20 +13021,8 @@
       <c r="F242" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G242" s="1">
-        <v>40</v>
-      </c>
-      <c r="H242" t="s">
-        <v>199</v>
-      </c>
-      <c r="I242">
-        <v>0.22</v>
-      </c>
-      <c r="J242">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="243" spans="1:10" ht="15.6">
+    </row>
+    <row r="243" spans="1:6" ht="15.6">
       <c r="A243" t="s">
         <v>587</v>
       </c>
@@ -14507,20 +13038,8 @@
       <c r="F243" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G243" s="1">
-        <v>9</v>
-      </c>
-      <c r="H243" t="s">
-        <v>194</v>
-      </c>
-      <c r="I243">
-        <v>0.22</v>
-      </c>
-      <c r="J243">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="244" spans="1:10" ht="15.6">
+    </row>
+    <row r="244" spans="1:6" ht="15.6">
       <c r="A244" t="s">
         <v>590</v>
       </c>
@@ -14533,20 +13052,8 @@
       <c r="F244" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G244" s="1">
-        <v>55</v>
-      </c>
-      <c r="H244" t="s">
-        <v>194</v>
-      </c>
-      <c r="I244">
-        <v>0.22</v>
-      </c>
-      <c r="J244">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="245" spans="1:10" ht="15.6">
+    </row>
+    <row r="245" spans="1:6" ht="15.6">
       <c r="A245" t="s">
         <v>592</v>
       </c>
@@ -14559,20 +13066,8 @@
       <c r="F245" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G245" s="1">
-        <v>5</v>
-      </c>
-      <c r="H245" t="s">
-        <v>201</v>
-      </c>
-      <c r="I245">
-        <v>0.22</v>
-      </c>
-      <c r="J245">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="246" spans="1:10" ht="15.6">
+    </row>
+    <row r="246" spans="1:6" ht="15.6">
       <c r="A246" t="s">
         <v>594</v>
       </c>
@@ -14585,20 +13080,8 @@
       <c r="F246" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G246" s="1">
-        <v>270</v>
-      </c>
-      <c r="H246" t="s">
-        <v>201</v>
-      </c>
-      <c r="I246">
-        <v>0.22</v>
-      </c>
-      <c r="J246">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="247" spans="1:10" ht="15.6">
+    </row>
+    <row r="247" spans="1:6" ht="15.6">
       <c r="A247" t="s">
         <v>428</v>
       </c>
@@ -14611,20 +13094,8 @@
       <c r="F247" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G247" s="1">
-        <v>5</v>
-      </c>
-      <c r="H247" t="s">
-        <v>201</v>
-      </c>
-      <c r="I247">
-        <v>0.22</v>
-      </c>
-      <c r="J247">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="248" spans="1:10" ht="15.6">
+    </row>
+    <row r="248" spans="1:6" ht="15.6">
       <c r="A248" t="s">
         <v>597</v>
       </c>
@@ -14637,20 +13108,8 @@
       <c r="F248" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G248" s="1">
-        <v>340</v>
-      </c>
-      <c r="H248" t="s">
-        <v>201</v>
-      </c>
-      <c r="I248">
-        <v>0.22</v>
-      </c>
-      <c r="J248">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="249" spans="1:10" ht="15.6">
+    </row>
+    <row r="249" spans="1:6" ht="15.6">
       <c r="A249" t="s">
         <v>599</v>
       </c>
@@ -14663,36 +13122,3117 @@
       <c r="F249" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G249" s="1">
-        <v>9</v>
-      </c>
-      <c r="H249" t="s">
-        <v>199</v>
-      </c>
-      <c r="I249">
-        <v>0.22</v>
-      </c>
-      <c r="J249">
-        <v>1.6</v>
-      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="10" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="9" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="duplicateValues" dxfId="8" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3:BA3">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+  <conditionalFormatting sqref="G3:AS3">
+    <cfRule type="duplicateValues" dxfId="16" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:H3">
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9A04D8A-7C6C-4CBA-BF5B-0CDA6B205E69}">
+  <dimension ref="A1:S59"/>
+  <sheetViews>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44:F50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="10.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="A1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1" t="str">
+        <f>_xlfn.CONCAT("  sample", B1, ":", A1)</f>
+        <v xml:space="preserve">  sample1:ERR315856</v>
+      </c>
+      <c r="F1" t="str">
+        <f>_xlfn.CONCAT("  ", A1, ":")</f>
+        <v xml:space="preserve">  ERR315856:</v>
+      </c>
+      <c r="K1" t="s">
+        <v>602</v>
+      </c>
+      <c r="L1">
+        <v>1</v>
+      </c>
+      <c r="M1" t="s">
+        <v>603</v>
+      </c>
+      <c r="N1" t="s">
+        <v>603</v>
+      </c>
+      <c r="O1" t="s">
+        <v>604</v>
+      </c>
+      <c r="P1" t="s">
+        <v>605</v>
+      </c>
+      <c r="Q1">
+        <v>3</v>
+      </c>
+      <c r="R1" s="7">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="S1" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" t="str">
+        <f t="shared" ref="C2:C40" si="0">_xlfn.CONCAT("  sample", B2, ":", A2)</f>
+        <v xml:space="preserve">  sample2:ERR315857</v>
+      </c>
+      <c r="F2" t="str">
+        <f t="shared" ref="F2:F40" si="1">_xlfn.CONCAT("  ", A2, ":")</f>
+        <v xml:space="preserve">  ERR315857:</v>
+      </c>
+      <c r="K2" t="s">
+        <v>602</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2" t="s">
+        <v>603</v>
+      </c>
+      <c r="N2" t="s">
+        <v>603</v>
+      </c>
+      <c r="O2" t="s">
+        <v>606</v>
+      </c>
+      <c r="P2" t="s">
+        <v>605</v>
+      </c>
+      <c r="Q2">
+        <v>3</v>
+      </c>
+      <c r="R2" s="7">
+        <v>0.73125000000000007</v>
+      </c>
+      <c r="S2" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" t="s">
+        <v>399</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  sample3:ERR598949</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  ERR598949:</v>
+      </c>
+      <c r="K3" t="s">
+        <v>602</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3" t="s">
+        <v>603</v>
+      </c>
+      <c r="N3" t="s">
+        <v>603</v>
+      </c>
+      <c r="O3" t="s">
+        <v>636</v>
+      </c>
+      <c r="P3" t="s">
+        <v>605</v>
+      </c>
+      <c r="Q3">
+        <v>3</v>
+      </c>
+      <c r="R3" s="7">
+        <v>0.74097222222222225</v>
+      </c>
+      <c r="S3" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" t="s">
+        <v>400</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  sample4:ERR598951</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  ERR598951:</v>
+      </c>
+      <c r="K4" t="s">
+        <v>602</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4" t="s">
+        <v>603</v>
+      </c>
+      <c r="N4" t="s">
+        <v>603</v>
+      </c>
+      <c r="O4" t="s">
+        <v>608</v>
+      </c>
+      <c r="P4" t="s">
+        <v>605</v>
+      </c>
+      <c r="Q4">
+        <v>3</v>
+      </c>
+      <c r="R4" s="7">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="S4" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" t="s">
+        <v>401</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  sample5:ERR598952</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  ERR598952:</v>
+      </c>
+      <c r="K5" t="s">
+        <v>602</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5" t="s">
+        <v>603</v>
+      </c>
+      <c r="N5" t="s">
+        <v>603</v>
+      </c>
+      <c r="O5" t="s">
+        <v>611</v>
+      </c>
+      <c r="P5" t="s">
+        <v>605</v>
+      </c>
+      <c r="Q5">
+        <v>3</v>
+      </c>
+      <c r="R5" s="7">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="S5" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" t="s">
+        <v>402</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  sample6:ERR598959</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  ERR598959:</v>
+      </c>
+      <c r="K6" t="s">
+        <v>602</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6" t="s">
+        <v>603</v>
+      </c>
+      <c r="N6" t="s">
+        <v>603</v>
+      </c>
+      <c r="O6" t="s">
+        <v>613</v>
+      </c>
+      <c r="P6" t="s">
+        <v>605</v>
+      </c>
+      <c r="Q6">
+        <v>3</v>
+      </c>
+      <c r="R6" s="7">
+        <v>0.77569444444444446</v>
+      </c>
+      <c r="S6" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" t="s">
+        <v>290</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  sample7:ERR598961</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  ERR598961:</v>
+      </c>
+      <c r="K7" t="s">
+        <v>602</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7" t="s">
+        <v>603</v>
+      </c>
+      <c r="N7" t="s">
+        <v>603</v>
+      </c>
+      <c r="O7" t="s">
+        <v>703</v>
+      </c>
+      <c r="P7" t="s">
+        <v>605</v>
+      </c>
+      <c r="Q7">
+        <v>3</v>
+      </c>
+      <c r="R7" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="S7" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" t="s">
+        <v>403</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  sample8:ERR598971</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  ERR598971:</v>
+      </c>
+      <c r="K8" t="s">
+        <v>602</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8" t="s">
+        <v>603</v>
+      </c>
+      <c r="N8" t="s">
+        <v>603</v>
+      </c>
+      <c r="O8" t="s">
+        <v>615</v>
+      </c>
+      <c r="P8" t="s">
+        <v>605</v>
+      </c>
+      <c r="Q8">
+        <v>3</v>
+      </c>
+      <c r="R8" s="7">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="S8" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" t="s">
+        <v>405</v>
+      </c>
+      <c r="B9">
+        <v>9</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  sample9:ERR598975</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  ERR598975:</v>
+      </c>
+      <c r="K9" t="s">
+        <v>602</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9" t="s">
+        <v>603</v>
+      </c>
+      <c r="N9" t="s">
+        <v>603</v>
+      </c>
+      <c r="O9" t="s">
+        <v>617</v>
+      </c>
+      <c r="P9" t="s">
+        <v>605</v>
+      </c>
+      <c r="Q9">
+        <v>3</v>
+      </c>
+      <c r="R9" s="7">
+        <v>0.74375000000000002</v>
+      </c>
+      <c r="S9" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" t="s">
+        <v>406</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  sample10:ERR598987</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  ERR598987:</v>
+      </c>
+      <c r="K10" t="s">
+        <v>602</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10" t="s">
+        <v>603</v>
+      </c>
+      <c r="N10" t="s">
+        <v>603</v>
+      </c>
+      <c r="O10" t="s">
+        <v>685</v>
+      </c>
+      <c r="P10" t="s">
+        <v>605</v>
+      </c>
+      <c r="Q10">
+        <v>3</v>
+      </c>
+      <c r="R10" s="7">
+        <v>0.74652777777777779</v>
+      </c>
+      <c r="S10" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" t="s">
+        <v>312</v>
+      </c>
+      <c r="B11">
+        <v>11</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  sample11:ERR598989</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  ERR598989:</v>
+      </c>
+      <c r="K11" t="s">
+        <v>602</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11" t="s">
+        <v>603</v>
+      </c>
+      <c r="N11" t="s">
+        <v>603</v>
+      </c>
+      <c r="O11" t="s">
+        <v>619</v>
+      </c>
+      <c r="P11" t="s">
+        <v>605</v>
+      </c>
+      <c r="Q11">
+        <v>3</v>
+      </c>
+      <c r="R11" s="7">
+        <v>0.74861111111111101</v>
+      </c>
+      <c r="S11" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" t="s">
+        <v>407</v>
+      </c>
+      <c r="B12">
+        <v>12</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  sample12:ERR598991</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  ERR598991:</v>
+      </c>
+      <c r="K12" t="s">
+        <v>602</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12" t="s">
+        <v>603</v>
+      </c>
+      <c r="N12" t="s">
+        <v>603</v>
+      </c>
+      <c r="O12" t="s">
+        <v>619</v>
+      </c>
+      <c r="P12" t="s">
+        <v>605</v>
+      </c>
+      <c r="Q12">
+        <v>3</v>
+      </c>
+      <c r="R12" s="7">
+        <v>0.74791666666666667</v>
+      </c>
+      <c r="S12" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" t="s">
+        <v>408</v>
+      </c>
+      <c r="B13">
+        <v>13</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  sample13:ERR598997</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  ERR598997:</v>
+      </c>
+      <c r="K13" t="s">
+        <v>602</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13" t="s">
+        <v>603</v>
+      </c>
+      <c r="N13" t="s">
+        <v>603</v>
+      </c>
+      <c r="O13" t="s">
+        <v>693</v>
+      </c>
+      <c r="P13" t="s">
+        <v>605</v>
+      </c>
+      <c r="Q13">
+        <v>3</v>
+      </c>
+      <c r="R13" s="7">
+        <v>0.77847222222222223</v>
+      </c>
+      <c r="S13" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" t="s">
+        <v>409</v>
+      </c>
+      <c r="B14">
+        <v>14</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  sample14:ERR599006</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  ERR599006:</v>
+      </c>
+      <c r="K14" t="s">
+        <v>602</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14" t="s">
+        <v>603</v>
+      </c>
+      <c r="N14" t="s">
+        <v>603</v>
+      </c>
+      <c r="O14" t="s">
+        <v>711</v>
+      </c>
+      <c r="P14" t="s">
+        <v>605</v>
+      </c>
+      <c r="Q14">
+        <v>3</v>
+      </c>
+      <c r="R14" s="7">
+        <v>0.70277777777777783</v>
+      </c>
+      <c r="S14" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" t="s">
+        <v>410</v>
+      </c>
+      <c r="B15">
+        <v>15</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  sample15:ERR599015</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  ERR599015:</v>
+      </c>
+      <c r="K15" t="s">
+        <v>602</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15" t="s">
+        <v>603</v>
+      </c>
+      <c r="N15" t="s">
+        <v>603</v>
+      </c>
+      <c r="O15" t="s">
+        <v>629</v>
+      </c>
+      <c r="P15" t="s">
+        <v>605</v>
+      </c>
+      <c r="Q15">
+        <v>3</v>
+      </c>
+      <c r="R15" s="7">
+        <v>0.73333333333333339</v>
+      </c>
+      <c r="S15" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" t="s">
+        <v>412</v>
+      </c>
+      <c r="B16">
+        <v>16</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  sample16:ERR599022</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  ERR599022:</v>
+      </c>
+      <c r="K16" t="s">
+        <v>602</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16" t="s">
+        <v>603</v>
+      </c>
+      <c r="N16" t="s">
+        <v>603</v>
+      </c>
+      <c r="O16" t="s">
+        <v>631</v>
+      </c>
+      <c r="P16" t="s">
+        <v>605</v>
+      </c>
+      <c r="Q16">
+        <v>3</v>
+      </c>
+      <c r="R16" s="7">
+        <v>0.75416666666666676</v>
+      </c>
+      <c r="S16" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17" t="s">
+        <v>314</v>
+      </c>
+      <c r="B17">
+        <v>17</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  sample17:ERR599030</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  ERR599030:</v>
+      </c>
+      <c r="K17" t="s">
+        <v>602</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17" t="s">
+        <v>603</v>
+      </c>
+      <c r="N17" t="s">
+        <v>603</v>
+      </c>
+      <c r="O17" t="s">
+        <v>715</v>
+      </c>
+      <c r="P17" t="s">
+        <v>605</v>
+      </c>
+      <c r="Q17">
+        <v>3</v>
+      </c>
+      <c r="R17" s="7">
+        <v>0.78125</v>
+      </c>
+      <c r="S17" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="A18" t="s">
+        <v>415</v>
+      </c>
+      <c r="B18">
+        <v>18</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  sample18:ERR599061</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  ERR599061:</v>
+      </c>
+      <c r="K18" t="s">
+        <v>602</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18" t="s">
+        <v>603</v>
+      </c>
+      <c r="N18" t="s">
+        <v>603</v>
+      </c>
+      <c r="O18" t="s">
+        <v>634</v>
+      </c>
+      <c r="P18" t="s">
+        <v>605</v>
+      </c>
+      <c r="Q18">
+        <v>3</v>
+      </c>
+      <c r="R18" s="7">
+        <v>0.79861111111111116</v>
+      </c>
+      <c r="S18" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="A19" t="s">
+        <v>416</v>
+      </c>
+      <c r="B19">
+        <v>19</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  sample19:ERR599065</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  ERR599065:</v>
+      </c>
+      <c r="K19" t="s">
+        <v>602</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19" t="s">
+        <v>603</v>
+      </c>
+      <c r="N19" t="s">
+        <v>603</v>
+      </c>
+      <c r="O19" t="s">
+        <v>636</v>
+      </c>
+      <c r="P19" t="s">
+        <v>605</v>
+      </c>
+      <c r="Q19">
+        <v>3</v>
+      </c>
+      <c r="R19" s="7">
+        <v>0.75347222222222221</v>
+      </c>
+      <c r="S19" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="A20" t="s">
+        <v>417</v>
+      </c>
+      <c r="B20">
+        <v>20</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  sample20:ERR599066</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  ERR599066:</v>
+      </c>
+      <c r="K20" t="s">
+        <v>602</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20" t="s">
+        <v>603</v>
+      </c>
+      <c r="N20" t="s">
+        <v>603</v>
+      </c>
+      <c r="O20" t="s">
+        <v>719</v>
+      </c>
+      <c r="P20" t="s">
+        <v>605</v>
+      </c>
+      <c r="Q20">
+        <v>3</v>
+      </c>
+      <c r="R20" s="7">
+        <v>0.77638888888888891</v>
+      </c>
+      <c r="S20" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
+      <c r="A21" t="s">
+        <v>418</v>
+      </c>
+      <c r="B21">
+        <v>21</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  sample21:ERR599067</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  ERR599067:</v>
+      </c>
+      <c r="K21" t="s">
+        <v>602</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21" t="s">
+        <v>603</v>
+      </c>
+      <c r="N21" t="s">
+        <v>603</v>
+      </c>
+      <c r="O21" t="s">
+        <v>623</v>
+      </c>
+      <c r="P21" t="s">
+        <v>605</v>
+      </c>
+      <c r="Q21">
+        <v>3</v>
+      </c>
+      <c r="R21" s="7">
+        <v>0.70347222222222217</v>
+      </c>
+      <c r="S21" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="A22" t="s">
+        <v>419</v>
+      </c>
+      <c r="B22">
+        <v>22</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  sample22:ERR599070</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  ERR599070:</v>
+      </c>
+      <c r="K22" t="s">
+        <v>602</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22" t="s">
+        <v>603</v>
+      </c>
+      <c r="N22" t="s">
+        <v>603</v>
+      </c>
+      <c r="O22" t="s">
+        <v>722</v>
+      </c>
+      <c r="P22" t="s">
+        <v>605</v>
+      </c>
+      <c r="Q22">
+        <v>3</v>
+      </c>
+      <c r="R22" s="7">
+        <v>0.72569444444444453</v>
+      </c>
+      <c r="S22" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
+      <c r="A23" t="s">
+        <v>420</v>
+      </c>
+      <c r="B23">
+        <v>23</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  sample23:ERR599076</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  ERR599076:</v>
+      </c>
+      <c r="K23" t="s">
+        <v>602</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23" t="s">
+        <v>603</v>
+      </c>
+      <c r="N23" t="s">
+        <v>603</v>
+      </c>
+      <c r="O23" t="s">
+        <v>643</v>
+      </c>
+      <c r="P23" t="s">
+        <v>605</v>
+      </c>
+      <c r="Q23">
+        <v>3</v>
+      </c>
+      <c r="R23" s="7">
+        <v>0.78819444444444453</v>
+      </c>
+      <c r="S23" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="A24" t="s">
+        <v>292</v>
+      </c>
+      <c r="B24">
+        <v>24</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  sample24:ERR599077</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  ERR599077:</v>
+      </c>
+      <c r="K24" t="s">
+        <v>602</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24" t="s">
+        <v>603</v>
+      </c>
+      <c r="N24" t="s">
+        <v>603</v>
+      </c>
+      <c r="O24" t="s">
+        <v>725</v>
+      </c>
+      <c r="P24" t="s">
+        <v>605</v>
+      </c>
+      <c r="Q24">
+        <v>3</v>
+      </c>
+      <c r="R24" s="7">
+        <v>0.76388888888888884</v>
+      </c>
+      <c r="S24" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
+      <c r="A25" t="s">
+        <v>421</v>
+      </c>
+      <c r="B25">
+        <v>25</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  sample25:ERR599079</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  ERR599079:</v>
+      </c>
+      <c r="K25" t="s">
+        <v>602</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25" t="s">
+        <v>603</v>
+      </c>
+      <c r="N25" t="s">
+        <v>603</v>
+      </c>
+      <c r="O25" t="s">
+        <v>646</v>
+      </c>
+      <c r="P25" t="s">
+        <v>605</v>
+      </c>
+      <c r="Q25">
+        <v>3</v>
+      </c>
+      <c r="R25" s="7">
+        <v>0.77013888888888893</v>
+      </c>
+      <c r="S25" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
+      <c r="A26" t="s">
+        <v>422</v>
+      </c>
+      <c r="B26">
+        <v>26</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  sample26:ERR599082</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  ERR599082:</v>
+      </c>
+      <c r="K26" t="s">
+        <v>602</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26" t="s">
+        <v>603</v>
+      </c>
+      <c r="N26" t="s">
+        <v>603</v>
+      </c>
+      <c r="O26" t="s">
+        <v>619</v>
+      </c>
+      <c r="P26" t="s">
+        <v>605</v>
+      </c>
+      <c r="Q26">
+        <v>3</v>
+      </c>
+      <c r="R26" s="7">
+        <v>0.71388888888888891</v>
+      </c>
+      <c r="S26" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
+      <c r="A27" t="s">
+        <v>423</v>
+      </c>
+      <c r="B27">
+        <v>27</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  sample27:ERR599083</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  ERR599083:</v>
+      </c>
+      <c r="K27" t="s">
+        <v>602</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27" t="s">
+        <v>603</v>
+      </c>
+      <c r="N27" t="s">
+        <v>603</v>
+      </c>
+      <c r="O27" t="s">
+        <v>627</v>
+      </c>
+      <c r="P27" t="s">
+        <v>605</v>
+      </c>
+      <c r="Q27">
+        <v>3</v>
+      </c>
+      <c r="R27" s="7">
+        <v>0.76458333333333339</v>
+      </c>
+      <c r="S27" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
+      <c r="A28" t="s">
+        <v>382</v>
+      </c>
+      <c r="B28">
+        <v>28</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  sample28:ERR599086</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  ERR599086:</v>
+      </c>
+      <c r="K28" t="s">
+        <v>602</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28" t="s">
+        <v>603</v>
+      </c>
+      <c r="N28" t="s">
+        <v>603</v>
+      </c>
+      <c r="O28" t="s">
+        <v>652</v>
+      </c>
+      <c r="P28" t="s">
+        <v>605</v>
+      </c>
+      <c r="Q28">
+        <v>3</v>
+      </c>
+      <c r="R28" s="7">
+        <v>0.7090277777777777</v>
+      </c>
+      <c r="S28" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
+      <c r="A29" t="s">
+        <v>425</v>
+      </c>
+      <c r="B29">
+        <v>29</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  sample29:ERR599094</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  ERR599094:</v>
+      </c>
+      <c r="K29" t="s">
+        <v>602</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29" t="s">
+        <v>603</v>
+      </c>
+      <c r="N29" t="s">
+        <v>603</v>
+      </c>
+      <c r="O29" t="s">
+        <v>731</v>
+      </c>
+      <c r="P29" t="s">
+        <v>605</v>
+      </c>
+      <c r="Q29">
+        <v>3</v>
+      </c>
+      <c r="R29" s="7">
+        <v>0.75416666666666676</v>
+      </c>
+      <c r="S29" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
+      <c r="A30" t="s">
+        <v>426</v>
+      </c>
+      <c r="B30">
+        <v>30</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  sample30:ERR599099</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  ERR599099:</v>
+      </c>
+      <c r="K30" t="s">
+        <v>602</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30" t="s">
+        <v>603</v>
+      </c>
+      <c r="N30" t="s">
+        <v>603</v>
+      </c>
+      <c r="O30" t="s">
+        <v>731</v>
+      </c>
+      <c r="P30" t="s">
+        <v>605</v>
+      </c>
+      <c r="Q30">
+        <v>3</v>
+      </c>
+      <c r="R30" s="7">
+        <v>0.77847222222222223</v>
+      </c>
+      <c r="S30" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
+      <c r="A31" t="s">
+        <v>427</v>
+      </c>
+      <c r="B31">
+        <v>31</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  sample31:ERR599101</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  ERR599101:</v>
+      </c>
+      <c r="K31" t="s">
+        <v>602</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31" t="s">
+        <v>603</v>
+      </c>
+      <c r="N31" t="s">
+        <v>603</v>
+      </c>
+      <c r="O31" t="s">
+        <v>655</v>
+      </c>
+      <c r="P31" t="s">
+        <v>605</v>
+      </c>
+      <c r="Q31">
+        <v>3</v>
+      </c>
+      <c r="R31" s="7">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="S31" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19">
+      <c r="A32" t="s">
+        <v>428</v>
+      </c>
+      <c r="B32">
+        <v>32</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  sample32:ERR599102</v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  ERR599102:</v>
+      </c>
+      <c r="K32" t="s">
+        <v>602</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32" t="s">
+        <v>603</v>
+      </c>
+      <c r="N32" t="s">
+        <v>603</v>
+      </c>
+      <c r="O32" t="s">
+        <v>657</v>
+      </c>
+      <c r="P32" t="s">
+        <v>605</v>
+      </c>
+      <c r="Q32">
+        <v>3</v>
+      </c>
+      <c r="R32" s="7">
+        <v>0.80625000000000002</v>
+      </c>
+      <c r="S32" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19">
+      <c r="A33" t="s">
+        <v>429</v>
+      </c>
+      <c r="B33">
+        <v>33</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  sample33:ERR599108</v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  ERR599108:</v>
+      </c>
+      <c r="K33" t="s">
+        <v>602</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33" t="s">
+        <v>603</v>
+      </c>
+      <c r="N33" t="s">
+        <v>603</v>
+      </c>
+      <c r="O33" t="s">
+        <v>627</v>
+      </c>
+      <c r="P33" t="s">
+        <v>605</v>
+      </c>
+      <c r="Q33">
+        <v>3</v>
+      </c>
+      <c r="R33" s="7">
+        <v>0.75902777777777775</v>
+      </c>
+      <c r="S33" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19">
+      <c r="A34" t="s">
+        <v>430</v>
+      </c>
+      <c r="B34">
+        <v>34</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  sample34:ERR599111</v>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  ERR599111:</v>
+      </c>
+      <c r="K34" t="s">
+        <v>602</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34" t="s">
+        <v>603</v>
+      </c>
+      <c r="N34" t="s">
+        <v>603</v>
+      </c>
+      <c r="O34" t="s">
+        <v>623</v>
+      </c>
+      <c r="P34" t="s">
+        <v>605</v>
+      </c>
+      <c r="Q34">
+        <v>3</v>
+      </c>
+      <c r="R34" s="7">
+        <v>0.70486111111111116</v>
+      </c>
+      <c r="S34" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19">
+      <c r="A35" t="s">
+        <v>431</v>
+      </c>
+      <c r="B35">
+        <v>35</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  sample35:ERR599118</v>
+      </c>
+      <c r="F35" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  ERR599118:</v>
+      </c>
+      <c r="K35" t="s">
+        <v>602</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35" t="s">
+        <v>603</v>
+      </c>
+      <c r="N35" t="s">
+        <v>603</v>
+      </c>
+      <c r="O35" t="s">
+        <v>619</v>
+      </c>
+      <c r="P35" t="s">
+        <v>605</v>
+      </c>
+      <c r="Q35">
+        <v>3</v>
+      </c>
+      <c r="R35" s="7">
+        <v>0.71458333333333324</v>
+      </c>
+      <c r="S35" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19">
+      <c r="A36" t="s">
+        <v>432</v>
+      </c>
+      <c r="B36">
+        <v>36</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  sample36:ERR599124</v>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  ERR599124:</v>
+      </c>
+      <c r="K36" t="s">
+        <v>602</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36" t="s">
+        <v>603</v>
+      </c>
+      <c r="N36" t="s">
+        <v>603</v>
+      </c>
+      <c r="O36" t="s">
+        <v>662</v>
+      </c>
+      <c r="P36" t="s">
+        <v>605</v>
+      </c>
+      <c r="Q36">
+        <v>3</v>
+      </c>
+      <c r="R36" s="7">
+        <v>0.80138888888888893</v>
+      </c>
+      <c r="S36" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19">
+      <c r="A37" t="s">
+        <v>433</v>
+      </c>
+      <c r="B37">
+        <v>37</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  sample37:ERR599127</v>
+      </c>
+      <c r="F37" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  ERR599127:</v>
+      </c>
+      <c r="K37" t="s">
+        <v>602</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37" t="s">
+        <v>603</v>
+      </c>
+      <c r="N37" t="s">
+        <v>603</v>
+      </c>
+      <c r="O37" t="s">
+        <v>664</v>
+      </c>
+      <c r="P37" t="s">
+        <v>605</v>
+      </c>
+      <c r="Q37">
+        <v>3</v>
+      </c>
+      <c r="R37" s="7">
+        <v>0.79375000000000007</v>
+      </c>
+      <c r="S37" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19">
+      <c r="A38" t="s">
+        <v>434</v>
+      </c>
+      <c r="B38">
+        <v>38</v>
+      </c>
+      <c r="C38" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  sample38:ERR599132</v>
+      </c>
+      <c r="F38" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  ERR599132:</v>
+      </c>
+      <c r="K38" t="s">
+        <v>602</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38" t="s">
+        <v>603</v>
+      </c>
+      <c r="N38" t="s">
+        <v>603</v>
+      </c>
+      <c r="O38" t="s">
+        <v>652</v>
+      </c>
+      <c r="P38" t="s">
+        <v>605</v>
+      </c>
+      <c r="Q38">
+        <v>3</v>
+      </c>
+      <c r="R38" s="7">
+        <v>0.71736111111111101</v>
+      </c>
+      <c r="S38" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19">
+      <c r="A39" t="s">
+        <v>231</v>
+      </c>
+      <c r="B39">
+        <v>39</v>
+      </c>
+      <c r="C39" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  sample39:ERR599145</v>
+      </c>
+      <c r="F39" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  ERR599145:</v>
+      </c>
+      <c r="K39" t="s">
+        <v>602</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39" t="s">
+        <v>603</v>
+      </c>
+      <c r="N39" t="s">
+        <v>603</v>
+      </c>
+      <c r="O39" t="s">
+        <v>619</v>
+      </c>
+      <c r="P39" t="s">
+        <v>605</v>
+      </c>
+      <c r="Q39">
+        <v>3</v>
+      </c>
+      <c r="R39" s="7">
+        <v>0.81180555555555556</v>
+      </c>
+      <c r="S39" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19">
+      <c r="A40" t="s">
+        <v>436</v>
+      </c>
+      <c r="B40">
+        <v>40</v>
+      </c>
+      <c r="C40" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  sample40:ERR599159</v>
+      </c>
+      <c r="F40" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  ERR599159:</v>
+      </c>
+      <c r="K40" t="s">
+        <v>602</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40" t="s">
+        <v>603</v>
+      </c>
+      <c r="N40" t="s">
+        <v>603</v>
+      </c>
+      <c r="O40" t="s">
+        <v>668</v>
+      </c>
+      <c r="P40" t="s">
+        <v>605</v>
+      </c>
+      <c r="Q40">
+        <v>3</v>
+      </c>
+      <c r="R40" s="7">
+        <v>0.81041666666666667</v>
+      </c>
+      <c r="S40" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19">
+      <c r="K41" t="s">
+        <v>602</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41" t="s">
+        <v>603</v>
+      </c>
+      <c r="N41" t="s">
+        <v>603</v>
+      </c>
+      <c r="O41" t="s">
+        <v>608</v>
+      </c>
+      <c r="P41" t="s">
+        <v>605</v>
+      </c>
+      <c r="Q41">
+        <v>3</v>
+      </c>
+      <c r="R41" s="7">
+        <v>0.73263888888888884</v>
+      </c>
+      <c r="S41" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19">
+      <c r="K42" t="s">
+        <v>602</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42" t="s">
+        <v>603</v>
+      </c>
+      <c r="N42" t="s">
+        <v>603</v>
+      </c>
+      <c r="O42" t="s">
+        <v>623</v>
+      </c>
+      <c r="P42" t="s">
+        <v>605</v>
+      </c>
+      <c r="Q42">
+        <v>3</v>
+      </c>
+      <c r="R42" s="7">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="S42" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19">
+      <c r="K43" t="s">
+        <v>602</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="M43" t="s">
+        <v>603</v>
+      </c>
+      <c r="N43" t="s">
+        <v>603</v>
+      </c>
+      <c r="O43" t="s">
+        <v>673</v>
+      </c>
+      <c r="P43" t="s">
+        <v>605</v>
+      </c>
+      <c r="Q43">
+        <v>3</v>
+      </c>
+      <c r="R43" s="7">
+        <v>0.76597222222222217</v>
+      </c>
+      <c r="S43" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19">
+      <c r="F44" t="s">
+        <v>404</v>
+      </c>
+      <c r="K44" t="s">
+        <v>602</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="M44" t="s">
+        <v>603</v>
+      </c>
+      <c r="N44" t="s">
+        <v>603</v>
+      </c>
+      <c r="O44" t="s">
+        <v>675</v>
+      </c>
+      <c r="P44" t="s">
+        <v>605</v>
+      </c>
+      <c r="Q44">
+        <v>3</v>
+      </c>
+      <c r="R44" s="7">
+        <v>0.70972222222222225</v>
+      </c>
+      <c r="S44" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19">
+      <c r="F45" t="s">
+        <v>413</v>
+      </c>
+      <c r="K45" t="s">
+        <v>602</v>
+      </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
+      <c r="M45" t="s">
+        <v>603</v>
+      </c>
+      <c r="N45" t="s">
+        <v>603</v>
+      </c>
+      <c r="O45" t="s">
+        <v>677</v>
+      </c>
+      <c r="P45" t="s">
+        <v>605</v>
+      </c>
+      <c r="Q45">
+        <v>3</v>
+      </c>
+      <c r="R45" s="7">
+        <v>0.76180555555555562</v>
+      </c>
+      <c r="S45" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19">
+      <c r="F46" t="s">
+        <v>411</v>
+      </c>
+      <c r="K46" t="s">
+        <v>602</v>
+      </c>
+      <c r="L46">
+        <v>1</v>
+      </c>
+      <c r="M46" t="s">
+        <v>603</v>
+      </c>
+      <c r="N46" t="s">
+        <v>603</v>
+      </c>
+      <c r="O46" t="s">
+        <v>634</v>
+      </c>
+      <c r="P46" t="s">
+        <v>605</v>
+      </c>
+      <c r="Q46">
+        <v>3</v>
+      </c>
+      <c r="R46" s="7">
+        <v>0.78125</v>
+      </c>
+      <c r="S46" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19">
+      <c r="F47" t="s">
+        <v>414</v>
+      </c>
+      <c r="K47" t="s">
+        <v>602</v>
+      </c>
+      <c r="L47">
+        <v>1</v>
+      </c>
+      <c r="M47" t="s">
+        <v>603</v>
+      </c>
+      <c r="N47" t="s">
+        <v>603</v>
+      </c>
+      <c r="O47" t="s">
+        <v>636</v>
+      </c>
+      <c r="P47" t="s">
+        <v>605</v>
+      </c>
+      <c r="Q47">
+        <v>3</v>
+      </c>
+      <c r="R47" s="7">
+        <v>0.75138888888888899</v>
+      </c>
+      <c r="S47" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19">
+      <c r="F48" t="s">
+        <v>424</v>
+      </c>
+      <c r="K48" t="s">
+        <v>602</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
+      </c>
+      <c r="M48" t="s">
+        <v>603</v>
+      </c>
+      <c r="N48" t="s">
+        <v>603</v>
+      </c>
+      <c r="O48" t="s">
+        <v>751</v>
+      </c>
+      <c r="P48" t="s">
+        <v>605</v>
+      </c>
+      <c r="Q48">
+        <v>3</v>
+      </c>
+      <c r="R48" s="7">
+        <v>0.77916666666666667</v>
+      </c>
+      <c r="S48" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="49" spans="6:19">
+      <c r="F49" t="s">
+        <v>435</v>
+      </c>
+      <c r="K49" t="s">
+        <v>602</v>
+      </c>
+      <c r="L49">
+        <v>1</v>
+      </c>
+      <c r="M49" t="s">
+        <v>603</v>
+      </c>
+      <c r="N49" t="s">
+        <v>603</v>
+      </c>
+      <c r="O49" t="s">
+        <v>619</v>
+      </c>
+      <c r="P49" t="s">
+        <v>605</v>
+      </c>
+      <c r="Q49">
+        <v>3</v>
+      </c>
+      <c r="R49" s="7">
+        <v>0.71527777777777779</v>
+      </c>
+      <c r="S49" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="50" spans="6:19">
+      <c r="F50" t="s">
+        <v>437</v>
+      </c>
+      <c r="K50" t="s">
+        <v>602</v>
+      </c>
+      <c r="L50">
+        <v>1</v>
+      </c>
+      <c r="M50" t="s">
+        <v>603</v>
+      </c>
+      <c r="N50" t="s">
+        <v>603</v>
+      </c>
+      <c r="O50" t="s">
+        <v>683</v>
+      </c>
+      <c r="P50" t="s">
+        <v>605</v>
+      </c>
+      <c r="Q50">
+        <v>3</v>
+      </c>
+      <c r="R50" s="7">
+        <v>0.77361111111111114</v>
+      </c>
+      <c r="S50" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="51" spans="6:19">
+      <c r="K51" t="s">
+        <v>602</v>
+      </c>
+      <c r="L51">
+        <v>1</v>
+      </c>
+      <c r="M51" t="s">
+        <v>603</v>
+      </c>
+      <c r="N51" t="s">
+        <v>603</v>
+      </c>
+      <c r="O51" t="s">
+        <v>685</v>
+      </c>
+      <c r="P51" t="s">
+        <v>605</v>
+      </c>
+      <c r="Q51">
+        <v>3</v>
+      </c>
+      <c r="R51" s="7">
+        <v>0.71388888888888891</v>
+      </c>
+      <c r="S51" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="52" spans="6:19">
+      <c r="K52" t="s">
+        <v>602</v>
+      </c>
+      <c r="L52">
+        <v>1</v>
+      </c>
+      <c r="M52" t="s">
+        <v>603</v>
+      </c>
+      <c r="N52" t="s">
+        <v>603</v>
+      </c>
+      <c r="O52" t="s">
+        <v>668</v>
+      </c>
+      <c r="P52" t="s">
+        <v>605</v>
+      </c>
+      <c r="Q52">
+        <v>3</v>
+      </c>
+      <c r="R52" s="7">
+        <v>0.78333333333333333</v>
+      </c>
+      <c r="S52" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="53" spans="6:19">
+      <c r="K53" t="s">
+        <v>602</v>
+      </c>
+      <c r="L53">
+        <v>1</v>
+      </c>
+      <c r="M53" t="s">
+        <v>603</v>
+      </c>
+      <c r="N53" t="s">
+        <v>603</v>
+      </c>
+      <c r="O53" t="s">
+        <v>638</v>
+      </c>
+      <c r="P53" t="s">
+        <v>605</v>
+      </c>
+      <c r="Q53">
+        <v>3</v>
+      </c>
+      <c r="R53" s="7">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="S53" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="54" spans="6:19">
+      <c r="K54" t="s">
+        <v>602</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+      <c r="M54" t="s">
+        <v>603</v>
+      </c>
+      <c r="N54" t="s">
+        <v>603</v>
+      </c>
+      <c r="O54" t="s">
+        <v>623</v>
+      </c>
+      <c r="P54" t="s">
+        <v>605</v>
+      </c>
+      <c r="Q54">
+        <v>3</v>
+      </c>
+      <c r="R54" s="7">
+        <v>0.80763888888888891</v>
+      </c>
+      <c r="S54" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="55" spans="6:19">
+      <c r="K55" t="s">
+        <v>602</v>
+      </c>
+      <c r="L55">
+        <v>1</v>
+      </c>
+      <c r="M55" t="s">
+        <v>603</v>
+      </c>
+      <c r="N55" t="s">
+        <v>603</v>
+      </c>
+      <c r="O55" t="s">
+        <v>623</v>
+      </c>
+      <c r="P55" t="s">
+        <v>605</v>
+      </c>
+      <c r="Q55">
+        <v>3</v>
+      </c>
+      <c r="R55" s="7">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="S55" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="56" spans="6:19">
+      <c r="K56" t="s">
+        <v>602</v>
+      </c>
+      <c r="L56">
+        <v>1</v>
+      </c>
+      <c r="M56" t="s">
+        <v>603</v>
+      </c>
+      <c r="N56" t="s">
+        <v>603</v>
+      </c>
+      <c r="O56" t="s">
+        <v>760</v>
+      </c>
+      <c r="P56" t="s">
+        <v>605</v>
+      </c>
+      <c r="Q56">
+        <v>3</v>
+      </c>
+      <c r="R56" s="7">
+        <v>0.72638888888888886</v>
+      </c>
+      <c r="S56" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="57" spans="6:19">
+      <c r="K57" t="s">
+        <v>602</v>
+      </c>
+      <c r="L57">
+        <v>1</v>
+      </c>
+      <c r="M57" t="s">
+        <v>603</v>
+      </c>
+      <c r="N57" t="s">
+        <v>603</v>
+      </c>
+      <c r="O57" t="s">
+        <v>621</v>
+      </c>
+      <c r="P57" t="s">
+        <v>605</v>
+      </c>
+      <c r="Q57">
+        <v>3</v>
+      </c>
+      <c r="R57" s="7">
+        <v>0.80833333333333324</v>
+      </c>
+      <c r="S57" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="58" spans="6:19">
+      <c r="K58" t="s">
+        <v>602</v>
+      </c>
+      <c r="L58">
+        <v>1</v>
+      </c>
+      <c r="M58" t="s">
+        <v>603</v>
+      </c>
+      <c r="N58" t="s">
+        <v>603</v>
+      </c>
+      <c r="O58" t="s">
+        <v>619</v>
+      </c>
+      <c r="P58" t="s">
+        <v>605</v>
+      </c>
+      <c r="Q58">
+        <v>3</v>
+      </c>
+      <c r="R58" s="7">
+        <v>0.80694444444444446</v>
+      </c>
+      <c r="S58" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="59" spans="6:19">
+      <c r="K59" t="s">
+        <v>602</v>
+      </c>
+      <c r="L59">
+        <v>1</v>
+      </c>
+      <c r="M59" t="s">
+        <v>603</v>
+      </c>
+      <c r="N59" t="s">
+        <v>603</v>
+      </c>
+      <c r="O59" t="s">
+        <v>619</v>
+      </c>
+      <c r="P59" t="s">
+        <v>605</v>
+      </c>
+      <c r="Q59">
+        <v>3</v>
+      </c>
+      <c r="R59" s="7">
+        <v>0.77430555555555547</v>
+      </c>
+      <c r="S59" t="s">
+        <v>764</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:A2">
+    <cfRule type="duplicateValues" dxfId="15" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:A40">
+    <cfRule type="duplicateValues" dxfId="14" priority="14"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E34B8F8-6404-4168-94D5-AA757E5AB8BD}">
+  <dimension ref="A1:C161"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>447</v>
+      </c>
+      <c r="C2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>451</v>
+      </c>
+      <c r="C3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>453</v>
+      </c>
+      <c r="C4" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>457</v>
+      </c>
+      <c r="C5" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>459</v>
+      </c>
+      <c r="C6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>461</v>
+      </c>
+      <c r="C7" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>463</v>
+      </c>
+      <c r="C8" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>466</v>
+      </c>
+      <c r="C9" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>468</v>
+      </c>
+      <c r="C10" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>471</v>
+      </c>
+      <c r="C11" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>245</v>
+      </c>
+      <c r="C12" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>244</v>
+      </c>
+      <c r="C13" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>243</v>
+      </c>
+      <c r="C14" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>242</v>
+      </c>
+      <c r="C15" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>473</v>
+      </c>
+      <c r="C16" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>475</v>
+      </c>
+      <c r="C17" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>477</v>
+      </c>
+      <c r="C18" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>479</v>
+      </c>
+      <c r="C19" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>481</v>
+      </c>
+      <c r="C20" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>483</v>
+      </c>
+      <c r="C21" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>485</v>
+      </c>
+      <c r="C22" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>487</v>
+      </c>
+      <c r="C23" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>489</v>
+      </c>
+      <c r="C24" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>491</v>
+      </c>
+      <c r="C25" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>291</v>
+      </c>
+      <c r="C26" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>493</v>
+      </c>
+      <c r="C27" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>495</v>
+      </c>
+      <c r="C28" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>497</v>
+      </c>
+      <c r="C29" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>499</v>
+      </c>
+      <c r="C30" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>501</v>
+      </c>
+      <c r="C31" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>503</v>
+      </c>
+      <c r="C32" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>505</v>
+      </c>
+      <c r="C33" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>508</v>
+      </c>
+      <c r="C34" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>511</v>
+      </c>
+      <c r="C35" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>513</v>
+      </c>
+      <c r="C36" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>515</v>
+      </c>
+      <c r="C37" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>517</v>
+      </c>
+      <c r="C38" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>306</v>
+      </c>
+      <c r="C39" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>305</v>
+      </c>
+      <c r="C40" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>519</v>
+      </c>
+      <c r="C41" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" t="s">
+        <v>437</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:A4">
+    <cfRule type="duplicateValues" dxfId="13" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:A6">
+    <cfRule type="duplicateValues" dxfId="12" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7:A15">
+    <cfRule type="duplicateValues" dxfId="11" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16">
+    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17:A27">
+    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A28:A38">
+    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A39:A46">
+    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A47:A56">
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A57:A77">
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A78:A87">
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A88:A97">
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A98:A103 A145:A146 C1:C41">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A147:A152">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A153:A154">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
